--- a/static/Models/Classification/Equation/Energy.xlsx
+++ b/static/Models/Classification/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.5322676301002502</v>
+        <v>0.3221709430217743</v>
       </c>
       <c r="C2">
-        <v>3.242082357406616</v>
+        <v>3.605178356170654</v>
       </c>
       <c r="D2">
-        <v>10.44223594665527</v>
+        <v>9.66015625</v>
       </c>
       <c r="E2">
-        <v>-2.559300899505615</v>
+        <v>-2.296783208847046</v>
       </c>
       <c r="F2">
-        <v>2.123897314071655</v>
+        <v>2.811470508575439</v>
       </c>
       <c r="G2">
-        <v>2.135124683380127</v>
+        <v>2.945315837860107</v>
       </c>
       <c r="H2">
-        <v>4.135822296142578</v>
+        <v>5.034948348999023</v>
       </c>
       <c r="I2">
-        <v>1.236063003540039</v>
+        <v>1.609348058700562</v>
       </c>
       <c r="J2">
-        <v>-3.583473920822144</v>
+        <v>-2.814692497253418</v>
       </c>
       <c r="K2">
-        <v>5.69287109375</v>
+        <v>6.102951526641846</v>
       </c>
       <c r="L2">
-        <v>0.2549949288368225</v>
+        <v>0.5705552697181702</v>
       </c>
       <c r="M2">
-        <v>-0.7663238644599915</v>
+        <v>-1.558979392051697</v>
       </c>
       <c r="N2">
-        <v>2.141759395599365</v>
+        <v>2.748067617416382</v>
       </c>
       <c r="O2">
-        <v>3.013778924942017</v>
+        <v>3.66692328453064</v>
       </c>
       <c r="P2">
-        <v>1.883760929107666</v>
+        <v>2.341981649398804</v>
       </c>
       <c r="Q2">
-        <v>4.117179870605469</v>
+        <v>4.779498100280762</v>
       </c>
       <c r="R2">
-        <v>-4.953993320465088</v>
+        <v>-4.651514053344727</v>
       </c>
       <c r="S2">
-        <v>1.40921688079834</v>
+        <v>1.103374600410461</v>
       </c>
       <c r="T2">
-        <v>-0.0332886315882206</v>
+        <v>0.02123838476836681</v>
       </c>
       <c r="U2">
-        <v>6.039569854736328</v>
+        <v>6.628140926361084</v>
       </c>
       <c r="V2">
-        <v>-0.5173149108886719</v>
+        <v>-0.1008466184139252</v>
       </c>
       <c r="W2">
-        <v>1.651634454727173</v>
+        <v>1.36282217502594</v>
       </c>
       <c r="X2">
-        <v>-2.257342338562012</v>
+        <v>-1.442873001098633</v>
       </c>
       <c r="Y2">
-        <v>-7.391532421112061</v>
+        <v>-7.331365585327148</v>
       </c>
       <c r="Z2">
-        <v>-7.635887145996094</v>
+        <v>-8.18138599395752</v>
       </c>
       <c r="AA2">
-        <v>-2.067504167556763</v>
+        <v>-1.232330441474915</v>
       </c>
       <c r="AB2">
-        <v>11.37236309051514</v>
+        <v>11.39703750610352</v>
       </c>
       <c r="AC2">
-        <v>0.5981766581535339</v>
+        <v>0.9770861268043518</v>
       </c>
       <c r="AD2">
-        <v>-0.8639917969703674</v>
+        <v>-0.728232741355896</v>
       </c>
       <c r="AE2">
-        <v>2.281742095947266</v>
+        <v>2.881462812423706</v>
       </c>
       <c r="AF2">
-        <v>1.726741194725037</v>
+        <v>2.321740388870239</v>
       </c>
       <c r="AG2">
-        <v>-7.944750308990479</v>
+        <v>-7.481548309326172</v>
       </c>
       <c r="AH2">
-        <v>-27.88756370544434</v>
+        <v>-27.11062240600586</v>
       </c>
       <c r="AI2">
-        <v>1.189205765724182</v>
+        <v>2.181969404220581</v>
       </c>
       <c r="AJ2">
-        <v>1.087174296379089</v>
+        <v>0.8981573581695557</v>
       </c>
       <c r="AK2">
-        <v>-1.376133680343628</v>
+        <v>-0.4163140058517456</v>
       </c>
       <c r="AL2">
-        <v>-3.34952187538147</v>
+        <v>-2.359916925430298</v>
       </c>
       <c r="AM2">
-        <v>-5.898130416870117</v>
+        <v>-6.383843421936035</v>
       </c>
       <c r="AN2">
-        <v>1.448061585426331</v>
+        <v>0.958495557308197</v>
       </c>
       <c r="AO2">
-        <v>-9.07329273223877</v>
+        <v>-9.165087699890137</v>
       </c>
       <c r="AP2">
-        <v>-7.120852947235107</v>
+        <v>-8.154032707214355</v>
       </c>
       <c r="AQ2">
-        <v>0.90395587682724</v>
+        <v>1.627639889717102</v>
       </c>
       <c r="AR2">
-        <v>1.728759527206421</v>
+        <v>2.255027055740356</v>
       </c>
       <c r="AS2">
-        <v>-11.79129409790039</v>
+        <v>-12.18643760681152</v>
       </c>
       <c r="AT2">
-        <v>-7.924515724182129</v>
+        <v>-7.130730152130127</v>
       </c>
       <c r="AU2">
-        <v>-7.909788131713867</v>
+        <v>-8.664375305175781</v>
       </c>
       <c r="AV2">
-        <v>-7.345356464385986</v>
+        <v>-8.225664138793945</v>
       </c>
       <c r="AW2">
-        <v>-2.501563310623169</v>
+        <v>-3.044634819030762</v>
       </c>
       <c r="AX2">
-        <v>3.600558280944824</v>
+        <v>3.010670185089111</v>
       </c>
       <c r="AY2">
-        <v>-2.145729541778564</v>
+        <v>-2.30608057975769</v>
       </c>
       <c r="AZ2">
-        <v>-6.82453727722168</v>
+        <v>-6.82646369934082</v>
       </c>
       <c r="BA2">
-        <v>1.757355451583862</v>
+        <v>2.718626499176025</v>
       </c>
       <c r="BB2">
-        <v>-9.120267868041992</v>
+        <v>-8.898105621337891</v>
       </c>
       <c r="BC2">
-        <v>-0.7857029438018799</v>
+        <v>-0.5400621294975281</v>
       </c>
       <c r="BD2">
-        <v>-1.42642080783844</v>
+        <v>-1.2596275806427</v>
       </c>
       <c r="BE2">
-        <v>-1.23054838180542</v>
+        <v>-2.075362682342529</v>
       </c>
       <c r="BF2">
-        <v>-0.8852816224098206</v>
+        <v>-0.4012519419193268</v>
       </c>
       <c r="BG2">
-        <v>0.9195311069488525</v>
+        <v>0.9539112448692322</v>
       </c>
       <c r="BH2">
-        <v>-3.887420415878296</v>
+        <v>-2.980437517166138</v>
       </c>
       <c r="BI2">
-        <v>-0.004991964437067509</v>
+        <v>0.1020764857530594</v>
       </c>
       <c r="BJ2">
-        <v>1.093562245368958</v>
+        <v>0.224108561873436</v>
       </c>
       <c r="BK2">
-        <v>-3.039085388183594</v>
+        <v>-2.838920831680298</v>
       </c>
       <c r="BL2">
-        <v>0.6604674458503723</v>
+        <v>1.555989742279053</v>
       </c>
       <c r="BM2">
-        <v>-12.23742389678955</v>
+        <v>-11.67082977294922</v>
       </c>
       <c r="BN2">
-        <v>1.056775212287903</v>
+        <v>0.5775656700134277</v>
       </c>
       <c r="BO2">
-        <v>-3.820778608322144</v>
+        <v>-3.129101991653442</v>
       </c>
       <c r="BP2">
-        <v>1.401117563247681</v>
+        <v>2.230684995651245</v>
       </c>
       <c r="BQ2">
-        <v>-3.951876878738403</v>
+        <v>-4.368192195892334</v>
       </c>
       <c r="BR2">
-        <v>0.633863091468811</v>
+        <v>0.3538194000720978</v>
       </c>
       <c r="BS2">
-        <v>0.2606524229049683</v>
+        <v>-0.2290034145116806</v>
       </c>
       <c r="BT2">
-        <v>-4.867823600769043</v>
+        <v>-3.979573249816895</v>
       </c>
       <c r="BU2">
-        <v>-0.6687774658203125</v>
+        <v>-0.03694784641265869</v>
       </c>
       <c r="BV2">
-        <v>-4.681134223937988</v>
+        <v>-3.884621858596802</v>
       </c>
       <c r="BW2">
-        <v>-1.766638875007629</v>
+        <v>-0.9651351571083069</v>
       </c>
       <c r="BX2">
-        <v>-14.58024024963379</v>
+        <v>-13.80874156951904</v>
       </c>
       <c r="BY2">
-        <v>1.784390211105347</v>
+        <v>1.480560541152954</v>
       </c>
       <c r="BZ2">
-        <v>-0.6587461829185486</v>
+        <v>0.06032227724790573</v>
       </c>
       <c r="CA2">
-        <v>-0.9918599724769592</v>
+        <v>-1.425400376319885</v>
       </c>
       <c r="CB2">
-        <v>5.558586120605469</v>
+        <v>4.979320526123047</v>
       </c>
       <c r="CC2">
-        <v>-1.791408538818359</v>
+        <v>-1.643576383590698</v>
       </c>
       <c r="CD2">
-        <v>1.050398707389832</v>
+        <v>0.9951968193054199</v>
       </c>
       <c r="CE2">
-        <v>0.3643109202384949</v>
+        <v>0.449266105890274</v>
       </c>
       <c r="CF2">
-        <v>-2.65050745010376</v>
+        <v>-1.809155344963074</v>
       </c>
       <c r="CG2">
-        <v>-1.024414896965027</v>
+        <v>-0.3884919881820679</v>
       </c>
       <c r="CH2">
-        <v>6.926371574401855</v>
+        <v>7.406283378601074</v>
       </c>
       <c r="CI2">
-        <v>-2.458311557769775</v>
+        <v>-2.300621747970581</v>
       </c>
       <c r="CJ2">
-        <v>1.983963489532471</v>
+        <v>2.819449901580811</v>
       </c>
       <c r="CK2">
-        <v>-1.351570963859558</v>
+        <v>-0.893876850605011</v>
       </c>
       <c r="CL2">
-        <v>-0.9887242317199707</v>
+        <v>-0.5409132838249207</v>
       </c>
       <c r="CM2">
-        <v>-6.492609977722168</v>
+        <v>-6.865475177764893</v>
       </c>
       <c r="CN2">
-        <v>-1.527228355407715</v>
+        <v>-2.364153623580933</v>
       </c>
       <c r="CO2">
-        <v>-2.518154859542847</v>
+        <v>-2.136792659759521</v>
       </c>
       <c r="CP2">
-        <v>-4.678371429443359</v>
+        <v>-4.429898262023926</v>
       </c>
       <c r="CQ2">
-        <v>3.229766368865967</v>
+        <v>4.080045223236084</v>
       </c>
       <c r="CR2">
-        <v>0.9678000807762146</v>
+        <v>0.4183494448661804</v>
       </c>
       <c r="CS2">
-        <v>1.461491465568542</v>
+        <v>2.250310897827148</v>
       </c>
       <c r="CT2">
-        <v>0.5221729278564453</v>
+        <v>0.7906161546707153</v>
       </c>
       <c r="CU2">
-        <v>0.1539453268051147</v>
+        <v>0.5620558857917786</v>
       </c>
       <c r="CV2">
-        <v>-0.2570692300796509</v>
+        <v>0.1081296801567078</v>
       </c>
       <c r="CW2">
-        <v>-9.922580718994141</v>
+        <v>-10.39131546020508</v>
       </c>
       <c r="CX2">
-        <v>1.557766675949097</v>
+        <v>0.7452723383903503</v>
       </c>
       <c r="CY2">
-        <v>2.577196359634399</v>
+        <v>2.045393943786621</v>
       </c>
       <c r="CZ2">
-        <v>-0.3644863069057465</v>
+        <v>0.5376092791557312</v>
       </c>
       <c r="DA2">
-        <v>-7.430236339569092</v>
+        <v>-6.994000911712646</v>
       </c>
       <c r="DB2">
-        <v>1.517879247665405</v>
+        <v>1.899363994598389</v>
       </c>
       <c r="DC2">
-        <v>0.3511277139186859</v>
+        <v>-0.6687330603599548</v>
       </c>
       <c r="DD2">
-        <v>-16.2765064239502</v>
+        <v>-15.48670196533203</v>
       </c>
       <c r="DE2">
-        <v>-0.2533663511276245</v>
+        <v>0.6116728782653809</v>
       </c>
       <c r="DF2">
-        <v>-4.894347667694092</v>
+        <v>-3.963670253753662</v>
       </c>
       <c r="DG2">
-        <v>1.448498845100403</v>
+        <v>1.000689029693604</v>
       </c>
       <c r="DH2">
-        <v>6.944944858551025</v>
+        <v>6.602813720703125</v>
       </c>
       <c r="DI2">
-        <v>0.3466098308563232</v>
+        <v>1.08170473575592</v>
       </c>
       <c r="DJ2">
-        <v>6.245909690856934</v>
+        <v>5.55241870880127</v>
       </c>
       <c r="DK2">
-        <v>21.0402774810791</v>
+        <v>21.9384937286377</v>
       </c>
       <c r="DL2">
-        <v>2.889527797698975</v>
+        <v>3.013055086135864</v>
       </c>
       <c r="DM2">
-        <v>-10.94005393981934</v>
+        <v>-10.09870910644531</v>
       </c>
       <c r="DN2">
-        <v>0.2591037452220917</v>
+        <v>0.3610280156135559</v>
       </c>
       <c r="DO2">
-        <v>-5.576035976409912</v>
+        <v>-5.432146072387695</v>
       </c>
       <c r="DP2">
-        <v>-1.178661823272705</v>
+        <v>-0.4598308503627777</v>
       </c>
       <c r="DQ2">
-        <v>0.5784325003623962</v>
+        <v>1.431959271430969</v>
       </c>
       <c r="DR2">
-        <v>2.155118703842163</v>
+        <v>2.630682706832886</v>
       </c>
       <c r="DS2">
-        <v>-5.579262733459473</v>
+        <v>-5.364239692687988</v>
       </c>
       <c r="DT2">
-        <v>-8.46608829498291</v>
+        <v>-9.132224082946777</v>
       </c>
       <c r="DU2">
-        <v>-9.510910987854004</v>
+        <v>-9.468512535095215</v>
       </c>
       <c r="DV2">
-        <v>-2.142765760421753</v>
+        <v>-1.561499953269958</v>
       </c>
       <c r="DW2">
-        <v>1.714453458786011</v>
+        <v>1.067939877510071</v>
       </c>
       <c r="DX2">
-        <v>-0.1151078715920448</v>
+        <v>0.01147584803402424</v>
       </c>
       <c r="DY2">
-        <v>11.37199592590332</v>
+        <v>11.80959606170654</v>
       </c>
       <c r="DZ2">
-        <v>0.3474471867084503</v>
+        <v>0.8883711099624634</v>
       </c>
       <c r="EA2">
-        <v>9.312090873718262</v>
+        <v>9.936676025390625</v>
       </c>
       <c r="EB2">
-        <v>-1.987926363945007</v>
+        <v>-1.772280097007751</v>
       </c>
       <c r="EC2">
-        <v>-0.575238823890686</v>
+        <v>0.3270043730735779</v>
       </c>
       <c r="ED2">
-        <v>0.9898461103439331</v>
+        <v>1.162133693695068</v>
       </c>
       <c r="EE2">
-        <v>-2.293363809585571</v>
+        <v>-2.06945276260376</v>
       </c>
       <c r="EF2">
-        <v>5.455904006958008</v>
+        <v>4.968388557434082</v>
       </c>
       <c r="EG2">
-        <v>3.157719850540161</v>
+        <v>2.644331932067871</v>
       </c>
       <c r="EH2">
-        <v>-24.90463638305664</v>
+        <v>-24.51668930053711</v>
       </c>
       <c r="EI2">
-        <v>-2.374302625656128</v>
+        <v>-1.703673839569092</v>
       </c>
       <c r="EJ2">
-        <v>0.004427769221365452</v>
+        <v>0.429271787405014</v>
       </c>
       <c r="EK2">
-        <v>0.7459316849708557</v>
+        <v>1.450360894203186</v>
       </c>
       <c r="EL2">
-        <v>-2.394625186920166</v>
+        <v>-1.886095285415649</v>
       </c>
       <c r="EM2">
-        <v>5.056473731994629</v>
+        <v>5.329284191131592</v>
       </c>
       <c r="EN2">
-        <v>9.09977912902832</v>
+        <v>8.942438125610352</v>
       </c>
       <c r="EO2">
-        <v>-0.8146941661834717</v>
+        <v>-0.01501377578824759</v>
       </c>
       <c r="EP2">
-        <v>1.000312566757202</v>
+        <v>0.3162925541400909</v>
       </c>
       <c r="EQ2">
-        <v>3.089509963989258</v>
+        <v>2.627889633178711</v>
       </c>
       <c r="ER2">
-        <v>3.02156662940979</v>
+        <v>3.50531792640686</v>
       </c>
       <c r="ES2">
-        <v>1.85035252571106</v>
+        <v>2.64562726020813</v>
       </c>
       <c r="ET2">
-        <v>2.112938404083252</v>
+        <v>1.976173877716064</v>
       </c>
       <c r="EU2">
-        <v>-6.102448463439941</v>
+        <v>-6.379879474639893</v>
       </c>
       <c r="EV2">
-        <v>-7.3365478515625</v>
+        <v>-7.864706993103027</v>
       </c>
       <c r="EW2">
-        <v>-0.9573970437049866</v>
+        <v>-1.835307598114014</v>
       </c>
       <c r="EX2">
-        <v>-0.1998502314090729</v>
+        <v>-0.08568284660577774</v>
       </c>
       <c r="EY2">
-        <v>1.508917808532715</v>
+        <v>2.156346559524536</v>
       </c>
       <c r="EZ2">
-        <v>-7.369971752166748</v>
+        <v>-7.720856189727783</v>
       </c>
       <c r="FA2">
-        <v>-0.08155253529548645</v>
+        <v>-0.4229715764522552</v>
       </c>
       <c r="FB2">
-        <v>-1.090299844741821</v>
+        <v>-0.2835844457149506</v>
       </c>
       <c r="FC2">
-        <v>7.764070987701416</v>
+        <v>6.938129425048828</v>
       </c>
       <c r="FD2">
-        <v>2.195673942565918</v>
+        <v>3.075971364974976</v>
       </c>
       <c r="FE2">
-        <v>1.971477031707764</v>
+        <v>2.070932149887085</v>
       </c>
       <c r="FF2">
-        <v>-4.179116249084473</v>
+        <v>-4.696817398071289</v>
       </c>
       <c r="FG2">
-        <v>-8.532958984375</v>
+        <v>-8.487175941467285</v>
       </c>
       <c r="FH2">
-        <v>-1.458502650260925</v>
+        <v>-1.784325838088989</v>
       </c>
       <c r="FI2">
-        <v>8.193188667297363</v>
+        <v>7.872958660125732</v>
       </c>
       <c r="FJ2">
-        <v>1.834888935089111</v>
+        <v>2.033217191696167</v>
       </c>
       <c r="FK2">
-        <v>-6.022850513458252</v>
+        <v>-6.154685497283936</v>
       </c>
       <c r="FL2">
-        <v>-3.047565937042236</v>
+        <v>-2.316136837005615</v>
       </c>
       <c r="FM2">
-        <v>-5.080446720123291</v>
+        <v>-4.033343315124512</v>
       </c>
       <c r="FN2">
-        <v>0.4797451794147491</v>
+        <v>1.419567704200745</v>
       </c>
       <c r="FO2">
-        <v>-2.350929975509644</v>
+        <v>-2.17515754699707</v>
       </c>
       <c r="FP2">
-        <v>0.9557211995124817</v>
+        <v>0.06340949982404709</v>
       </c>
       <c r="FQ2">
-        <v>0.5673081278800964</v>
+        <v>1.117539286613464</v>
       </c>
       <c r="FR2">
-        <v>2.501953363418579</v>
+        <v>3.334457635879517</v>
       </c>
       <c r="FS2">
-        <v>1.975247025489807</v>
+        <v>2.387357234954834</v>
       </c>
       <c r="FT2">
-        <v>1.092154026031494</v>
+        <v>1.684719324111938</v>
       </c>
       <c r="FU2">
-        <v>-0.9838903546333313</v>
+        <v>-0.6714387536048889</v>
       </c>
       <c r="FV2">
-        <v>-2.219927310943604</v>
+        <v>-1.655043363571167</v>
       </c>
       <c r="FW2">
-        <v>-4.014747619628906</v>
+        <v>-3.775578498840332</v>
       </c>
       <c r="FX2">
-        <v>-0.531454861164093</v>
+        <v>-1.076225161552429</v>
       </c>
       <c r="FY2">
-        <v>-0.3845246434211731</v>
+        <v>0.5486522316932678</v>
       </c>
       <c r="FZ2">
-        <v>0.6702203750610352</v>
+        <v>0.8522049784660339</v>
       </c>
       <c r="GA2">
-        <v>4.381272315979004</v>
+        <v>4.84949779510498</v>
       </c>
       <c r="GB2">
-        <v>-2.632734298706055</v>
+        <v>-2.974443197250366</v>
       </c>
       <c r="GC2">
-        <v>-7.472548484802246</v>
+        <v>-7.859085559844971</v>
       </c>
       <c r="GD2">
-        <v>-5.119794845581055</v>
+        <v>-5.061844825744629</v>
       </c>
       <c r="GE2">
-        <v>1.09423291683197</v>
+        <v>1.675509810447693</v>
       </c>
       <c r="GF2">
-        <v>-13.25514984130859</v>
+        <v>-12.72201442718506</v>
       </c>
       <c r="GG2">
-        <v>-8.967669486999512</v>
+        <v>-8.510401725769043</v>
       </c>
       <c r="GH2">
-        <v>0.3390405476093292</v>
+        <v>-0.2303972989320755</v>
       </c>
       <c r="GI2">
-        <v>-10.77425289154053</v>
+        <v>-10.04757595062256</v>
       </c>
       <c r="GJ2">
-        <v>-3.766364574432373</v>
+        <v>-4.431841373443604</v>
       </c>
       <c r="GK2">
-        <v>-1.749862313270569</v>
+        <v>-1.146271944046021</v>
       </c>
       <c r="GL2">
-        <v>5.512576580047607</v>
+        <v>4.971299648284912</v>
       </c>
       <c r="GM2">
-        <v>6.963364124298096</v>
+        <v>7.027325630187988</v>
       </c>
       <c r="GN2">
-        <v>-12.52470874786377</v>
+        <v>-12.89171504974365</v>
       </c>
       <c r="GO2">
-        <v>-4.9986891746521</v>
+        <v>-5.641751289367676</v>
       </c>
       <c r="GP2">
-        <v>0.1987295746803284</v>
+        <v>-0.006314643658697605</v>
       </c>
       <c r="GQ2">
-        <v>2.604056596755981</v>
+        <v>2.5720055103302</v>
       </c>
       <c r="GR2">
-        <v>-4.383222579956055</v>
+        <v>-3.582502603530884</v>
       </c>
       <c r="GS2">
-        <v>-15.43329524993896</v>
+        <v>-15.30126857757568</v>
       </c>
       <c r="GT2">
-        <v>-1.485606670379639</v>
+        <v>-0.6001167297363281</v>
       </c>
       <c r="GU2">
-        <v>2.579516887664795</v>
+        <v>2.027192354202271</v>
       </c>
       <c r="GV2">
-        <v>-2.950741767883301</v>
+        <v>-2.923027038574219</v>
       </c>
       <c r="GW2">
-        <v>-14.65524578094482</v>
+        <v>-13.82944774627686</v>
       </c>
       <c r="GX2">
-        <v>1.422990798950195</v>
+        <v>1.502187848091125</v>
       </c>
       <c r="GY2">
-        <v>1.039401531219482</v>
+        <v>0.8877584934234619</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Energy.xlsx
+++ b/static/Models/Classification/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.3221709430217743</v>
+        <v>0.7240554094314575</v>
       </c>
       <c r="C2">
-        <v>3.605178356170654</v>
+        <v>3.147067070007324</v>
       </c>
       <c r="D2">
-        <v>9.66015625</v>
+        <v>9.18179988861084</v>
       </c>
       <c r="E2">
-        <v>-2.296783208847046</v>
+        <v>-1.786514163017273</v>
       </c>
       <c r="F2">
-        <v>2.811470508575439</v>
+        <v>3.228117704391479</v>
       </c>
       <c r="G2">
-        <v>2.945315837860107</v>
+        <v>3.296403408050537</v>
       </c>
       <c r="H2">
-        <v>5.034948348999023</v>
+        <v>4.569109439849854</v>
       </c>
       <c r="I2">
-        <v>1.609348058700562</v>
+        <v>1.21751594543457</v>
       </c>
       <c r="J2">
-        <v>-2.814692497253418</v>
+        <v>-2.949679851531982</v>
       </c>
       <c r="K2">
-        <v>6.102951526641846</v>
+        <v>5.671655178070068</v>
       </c>
       <c r="L2">
-        <v>0.5705552697181702</v>
+        <v>0.9358683228492737</v>
       </c>
       <c r="M2">
-        <v>-1.558979392051697</v>
+        <v>-1.846133351325989</v>
       </c>
       <c r="N2">
-        <v>2.748067617416382</v>
+        <v>2.844382047653198</v>
       </c>
       <c r="O2">
-        <v>3.66692328453064</v>
+        <v>3.228044509887695</v>
       </c>
       <c r="P2">
-        <v>2.341981649398804</v>
+        <v>1.870925545692444</v>
       </c>
       <c r="Q2">
-        <v>4.779498100280762</v>
+        <v>4.584824562072754</v>
       </c>
       <c r="R2">
-        <v>-4.651514053344727</v>
+        <v>-4.19706916809082</v>
       </c>
       <c r="S2">
-        <v>1.103374600410461</v>
+        <v>0.6677793860435486</v>
       </c>
       <c r="T2">
-        <v>0.02123838476836681</v>
+        <v>-0.4531379640102386</v>
       </c>
       <c r="U2">
-        <v>6.628140926361084</v>
+        <v>7.017416000366211</v>
       </c>
       <c r="V2">
-        <v>-0.1008466184139252</v>
+        <v>0.05857587233185768</v>
       </c>
       <c r="W2">
-        <v>1.36282217502594</v>
+        <v>1.810400366783142</v>
       </c>
       <c r="X2">
-        <v>-1.442873001098633</v>
+        <v>-1.337162494659424</v>
       </c>
       <c r="Y2">
-        <v>-7.331365585327148</v>
+        <v>-7.834046840667725</v>
       </c>
       <c r="Z2">
-        <v>-8.18138599395752</v>
+        <v>-8.678543090820312</v>
       </c>
       <c r="AA2">
-        <v>-1.232330441474915</v>
+        <v>-0.8824373483657837</v>
       </c>
       <c r="AB2">
-        <v>11.39703750610352</v>
+        <v>11.13675403594971</v>
       </c>
       <c r="AC2">
-        <v>0.9770861268043518</v>
+        <v>1.416222095489502</v>
       </c>
       <c r="AD2">
-        <v>-0.728232741355896</v>
+        <v>-1.202950954437256</v>
       </c>
       <c r="AE2">
-        <v>2.881462812423706</v>
+        <v>2.955744504928589</v>
       </c>
       <c r="AF2">
-        <v>2.321740388870239</v>
+        <v>1.782352089881897</v>
       </c>
       <c r="AG2">
-        <v>-7.481548309326172</v>
+        <v>-7.605636596679688</v>
       </c>
       <c r="AH2">
-        <v>-27.11062240600586</v>
+        <v>-26.79802894592285</v>
       </c>
       <c r="AI2">
-        <v>2.181969404220581</v>
+        <v>1.772678971290588</v>
       </c>
       <c r="AJ2">
-        <v>0.8981573581695557</v>
+        <v>0.6424230933189392</v>
       </c>
       <c r="AK2">
-        <v>-0.4163140058517456</v>
+        <v>-0.3519594073295593</v>
       </c>
       <c r="AL2">
-        <v>-2.359916925430298</v>
+        <v>-2.123012542724609</v>
       </c>
       <c r="AM2">
-        <v>-6.383843421936035</v>
+        <v>-6.444343566894531</v>
       </c>
       <c r="AN2">
-        <v>0.958495557308197</v>
+        <v>0.7537808418273926</v>
       </c>
       <c r="AO2">
-        <v>-9.165087699890137</v>
+        <v>-8.9149169921875</v>
       </c>
       <c r="AP2">
-        <v>-8.154032707214355</v>
+        <v>-8.623126983642578</v>
       </c>
       <c r="AQ2">
-        <v>1.627639889717102</v>
+        <v>1.345218777656555</v>
       </c>
       <c r="AR2">
-        <v>2.255027055740356</v>
+        <v>2.514163017272949</v>
       </c>
       <c r="AS2">
-        <v>-12.18643760681152</v>
+        <v>-12.23511505126953</v>
       </c>
       <c r="AT2">
-        <v>-7.130730152130127</v>
+        <v>-6.719501972198486</v>
       </c>
       <c r="AU2">
-        <v>-8.664375305175781</v>
+        <v>-8.375269889831543</v>
       </c>
       <c r="AV2">
-        <v>-8.225664138793945</v>
+        <v>-8.667179107666016</v>
       </c>
       <c r="AW2">
-        <v>-3.044634819030762</v>
+        <v>-2.608640193939209</v>
       </c>
       <c r="AX2">
-        <v>3.010670185089111</v>
+        <v>3.199865579605103</v>
       </c>
       <c r="AY2">
-        <v>-2.30608057975769</v>
+        <v>-1.859301090240479</v>
       </c>
       <c r="AZ2">
-        <v>-6.82646369934082</v>
+        <v>-7.161369800567627</v>
       </c>
       <c r="BA2">
-        <v>2.718626499176025</v>
+        <v>2.429680347442627</v>
       </c>
       <c r="BB2">
-        <v>-8.898105621337891</v>
+        <v>-8.88960075378418</v>
       </c>
       <c r="BC2">
-        <v>-0.5400621294975281</v>
+        <v>-1.017019271850586</v>
       </c>
       <c r="BD2">
-        <v>-1.2596275806427</v>
+        <v>-1.715340614318848</v>
       </c>
       <c r="BE2">
-        <v>-2.075362682342529</v>
+        <v>-2.11987566947937</v>
       </c>
       <c r="BF2">
-        <v>-0.4012519419193268</v>
+        <v>-0.6251864433288574</v>
       </c>
       <c r="BG2">
-        <v>0.9539112448692322</v>
+        <v>0.4797433912754059</v>
       </c>
       <c r="BH2">
-        <v>-2.980437517166138</v>
+        <v>-3.025093555450439</v>
       </c>
       <c r="BI2">
-        <v>0.1020764857530594</v>
+        <v>-0.3679892122745514</v>
       </c>
       <c r="BJ2">
-        <v>0.224108561873436</v>
+        <v>0.749720573425293</v>
       </c>
       <c r="BK2">
-        <v>-2.838920831680298</v>
+        <v>-3.215214967727661</v>
       </c>
       <c r="BL2">
-        <v>1.555989742279053</v>
+        <v>1.959046602249146</v>
       </c>
       <c r="BM2">
-        <v>-11.67082977294922</v>
+        <v>-12.15451812744141</v>
       </c>
       <c r="BN2">
-        <v>0.5775656700134277</v>
+        <v>0.1200511530041695</v>
       </c>
       <c r="BO2">
-        <v>-3.129101991653442</v>
+        <v>-2.708489179611206</v>
       </c>
       <c r="BP2">
-        <v>2.230684995651245</v>
+        <v>2.707035064697266</v>
       </c>
       <c r="BQ2">
-        <v>-4.368192195892334</v>
+        <v>-4.522900104522705</v>
       </c>
       <c r="BR2">
-        <v>0.3538194000720978</v>
+        <v>0.855772078037262</v>
       </c>
       <c r="BS2">
-        <v>-0.2290034145116806</v>
+        <v>0.1632643938064575</v>
       </c>
       <c r="BT2">
-        <v>-3.979573249816895</v>
+        <v>-3.686227798461914</v>
       </c>
       <c r="BU2">
-        <v>-0.03694784641265869</v>
+        <v>-0.4807563722133636</v>
       </c>
       <c r="BV2">
-        <v>-3.884621858596802</v>
+        <v>-3.463226318359375</v>
       </c>
       <c r="BW2">
-        <v>-0.9651351571083069</v>
+        <v>-0.8761396408081055</v>
       </c>
       <c r="BX2">
-        <v>-13.80874156951904</v>
+        <v>-13.61869812011719</v>
       </c>
       <c r="BY2">
-        <v>1.480560541152954</v>
+        <v>0.9581145048141479</v>
       </c>
       <c r="BZ2">
-        <v>0.06032227724790573</v>
+        <v>-0.2513138651847839</v>
       </c>
       <c r="CA2">
-        <v>-1.425400376319885</v>
+        <v>-1.069321990013123</v>
       </c>
       <c r="CB2">
-        <v>4.979320526123047</v>
+        <v>4.940249919891357</v>
       </c>
       <c r="CC2">
-        <v>-1.643576383590698</v>
+        <v>-2.11420726776123</v>
       </c>
       <c r="CD2">
-        <v>0.9951968193054199</v>
+        <v>1.48024594783783</v>
       </c>
       <c r="CE2">
-        <v>0.449266105890274</v>
+        <v>0.4845253229141235</v>
       </c>
       <c r="CF2">
-        <v>-1.809155344963074</v>
+        <v>-1.715674042701721</v>
       </c>
       <c r="CG2">
-        <v>-0.3884919881820679</v>
+        <v>-0.5563022494316101</v>
       </c>
       <c r="CH2">
-        <v>7.406283378601074</v>
+        <v>7.879699230194092</v>
       </c>
       <c r="CI2">
-        <v>-2.300621747970581</v>
+        <v>-2.787600994110107</v>
       </c>
       <c r="CJ2">
-        <v>2.819449901580811</v>
+        <v>2.874892473220825</v>
       </c>
       <c r="CK2">
-        <v>-0.893876850605011</v>
+        <v>-1.36505126953125</v>
       </c>
       <c r="CL2">
-        <v>-0.5409132838249207</v>
+        <v>-0.9488059878349304</v>
       </c>
       <c r="CM2">
-        <v>-6.865475177764893</v>
+        <v>-7.114615917205811</v>
       </c>
       <c r="CN2">
-        <v>-2.364153623580933</v>
+        <v>-2.017807722091675</v>
       </c>
       <c r="CO2">
-        <v>-2.136792659759521</v>
+        <v>-2.607097625732422</v>
       </c>
       <c r="CP2">
-        <v>-4.429898262023926</v>
+        <v>-4.430416107177734</v>
       </c>
       <c r="CQ2">
-        <v>4.080045223236084</v>
+        <v>3.612528085708618</v>
       </c>
       <c r="CR2">
-        <v>0.4183494448661804</v>
+        <v>0.3603658676147461</v>
       </c>
       <c r="CS2">
-        <v>2.250310897827148</v>
+        <v>1.801108717918396</v>
       </c>
       <c r="CT2">
-        <v>0.7906161546707153</v>
+        <v>0.321625143289566</v>
       </c>
       <c r="CU2">
-        <v>0.5620558857917786</v>
+        <v>0.160609170794487</v>
       </c>
       <c r="CV2">
-        <v>0.1081296801567078</v>
+        <v>0.4982200264930725</v>
       </c>
       <c r="CW2">
-        <v>-10.39131546020508</v>
+        <v>-10.90398406982422</v>
       </c>
       <c r="CX2">
-        <v>0.7452723383903503</v>
+        <v>1.025227665901184</v>
       </c>
       <c r="CY2">
-        <v>2.045393943786621</v>
+        <v>2.495026826858521</v>
       </c>
       <c r="CZ2">
-        <v>0.5376092791557312</v>
+        <v>0.9045478701591492</v>
       </c>
       <c r="DA2">
-        <v>-6.994000911712646</v>
+        <v>-7.060914516448975</v>
       </c>
       <c r="DB2">
-        <v>1.899363994598389</v>
+        <v>2.376347303390503</v>
       </c>
       <c r="DC2">
-        <v>-0.6687330603599548</v>
+        <v>-0.4212239682674408</v>
       </c>
       <c r="DD2">
-        <v>-15.48670196533203</v>
+        <v>-15.37870407104492</v>
       </c>
       <c r="DE2">
-        <v>0.6116728782653809</v>
+        <v>0.1935776025056839</v>
       </c>
       <c r="DF2">
-        <v>-3.963670253753662</v>
+        <v>-3.571483135223389</v>
       </c>
       <c r="DG2">
-        <v>1.000689029693604</v>
+        <v>0.5655916929244995</v>
       </c>
       <c r="DH2">
-        <v>6.602813720703125</v>
+        <v>6.091907501220703</v>
       </c>
       <c r="DI2">
-        <v>1.08170473575592</v>
+        <v>1.530380487442017</v>
       </c>
       <c r="DJ2">
-        <v>5.55241870880127</v>
+        <v>5.059657096862793</v>
       </c>
       <c r="DK2">
-        <v>21.9384937286377</v>
+        <v>22.33529853820801</v>
       </c>
       <c r="DL2">
-        <v>3.013055086135864</v>
+        <v>3.223211526870728</v>
       </c>
       <c r="DM2">
-        <v>-10.09870910644531</v>
+        <v>-10.08931159973145</v>
       </c>
       <c r="DN2">
-        <v>0.3610280156135559</v>
+        <v>-0.1159258261322975</v>
       </c>
       <c r="DO2">
-        <v>-5.432146072387695</v>
+        <v>-5.867116451263428</v>
       </c>
       <c r="DP2">
-        <v>-0.4598308503627777</v>
+        <v>-0.06356613337993622</v>
       </c>
       <c r="DQ2">
-        <v>1.431959271430969</v>
+        <v>1.027960777282715</v>
       </c>
       <c r="DR2">
-        <v>2.630682706832886</v>
+        <v>3.062456130981445</v>
       </c>
       <c r="DS2">
-        <v>-5.364239692687988</v>
+        <v>-5.849628925323486</v>
       </c>
       <c r="DT2">
-        <v>-9.132224082946777</v>
+        <v>-9.461490631103516</v>
       </c>
       <c r="DU2">
-        <v>-9.468512535095215</v>
+        <v>-9.277938842773438</v>
       </c>
       <c r="DV2">
-        <v>-1.561499953269958</v>
+        <v>-1.277474522590637</v>
       </c>
       <c r="DW2">
-        <v>1.067939877510071</v>
+        <v>1.490711212158203</v>
       </c>
       <c r="DX2">
-        <v>0.01147584803402424</v>
+        <v>-0.453101634979248</v>
       </c>
       <c r="DY2">
-        <v>11.80959606170654</v>
+        <v>12.13297271728516</v>
       </c>
       <c r="DZ2">
-        <v>0.8883711099624634</v>
+        <v>0.6760396361351013</v>
       </c>
       <c r="EA2">
-        <v>9.936676025390625</v>
+        <v>10.2236967086792</v>
       </c>
       <c r="EB2">
-        <v>-1.772280097007751</v>
+        <v>-2.241034984588623</v>
       </c>
       <c r="EC2">
-        <v>0.3270043730735779</v>
+        <v>0.442340224981308</v>
       </c>
       <c r="ED2">
-        <v>1.162133693695068</v>
+        <v>0.7050786018371582</v>
       </c>
       <c r="EE2">
-        <v>-2.06945276260376</v>
+        <v>-2.555471181869507</v>
       </c>
       <c r="EF2">
-        <v>4.968388557434082</v>
+        <v>4.404540061950684</v>
       </c>
       <c r="EG2">
-        <v>2.644331932067871</v>
+        <v>2.656731128692627</v>
       </c>
       <c r="EH2">
-        <v>-24.51668930053711</v>
+        <v>-24.90649032592773</v>
       </c>
       <c r="EI2">
-        <v>-1.703673839569092</v>
+        <v>-2.104501962661743</v>
       </c>
       <c r="EJ2">
-        <v>0.429271787405014</v>
+        <v>0.3075787723064423</v>
       </c>
       <c r="EK2">
-        <v>1.450360894203186</v>
+        <v>1.069760084152222</v>
       </c>
       <c r="EL2">
-        <v>-1.886095285415649</v>
+        <v>-2.326687574386597</v>
       </c>
       <c r="EM2">
-        <v>5.329284191131592</v>
+        <v>5.818295955657959</v>
       </c>
       <c r="EN2">
-        <v>8.942438125610352</v>
+        <v>8.67670726776123</v>
       </c>
       <c r="EO2">
-        <v>-0.01501377578824759</v>
+        <v>-0.2742058336734772</v>
       </c>
       <c r="EP2">
-        <v>0.3162925541400909</v>
+        <v>-0.2262700796127319</v>
       </c>
       <c r="EQ2">
-        <v>2.627889633178711</v>
+        <v>2.260278224945068</v>
       </c>
       <c r="ER2">
-        <v>3.50531792640686</v>
+        <v>3.99633002281189</v>
       </c>
       <c r="ES2">
-        <v>2.64562726020813</v>
+        <v>2.361716508865356</v>
       </c>
       <c r="ET2">
-        <v>1.976173877716064</v>
+        <v>1.48431396484375</v>
       </c>
       <c r="EU2">
-        <v>-6.379879474639893</v>
+        <v>-6.887769222259521</v>
       </c>
       <c r="EV2">
-        <v>-7.864706993103027</v>
+        <v>-8.238085746765137</v>
       </c>
       <c r="EW2">
-        <v>-1.835307598114014</v>
+        <v>-1.957316637039185</v>
       </c>
       <c r="EX2">
-        <v>-0.08568284660577774</v>
+        <v>0.3780920803546906</v>
       </c>
       <c r="EY2">
-        <v>2.156346559524536</v>
+        <v>1.703425765037537</v>
       </c>
       <c r="EZ2">
-        <v>-7.720856189727783</v>
+        <v>-8.209396362304688</v>
       </c>
       <c r="FA2">
-        <v>-0.4229715764522552</v>
+        <v>-0.7458687424659729</v>
       </c>
       <c r="FB2">
-        <v>-0.2835844457149506</v>
+        <v>-0.7144089341163635</v>
       </c>
       <c r="FC2">
-        <v>6.938129425048828</v>
+        <v>6.409374237060547</v>
       </c>
       <c r="FD2">
-        <v>3.075971364974976</v>
+        <v>3.43757700920105</v>
       </c>
       <c r="FE2">
-        <v>2.070932149887085</v>
+        <v>1.590509295463562</v>
       </c>
       <c r="FF2">
-        <v>-4.696817398071289</v>
+        <v>-5.196278095245361</v>
       </c>
       <c r="FG2">
-        <v>-8.487175941467285</v>
+        <v>-7.994048118591309</v>
       </c>
       <c r="FH2">
-        <v>-1.784325838088989</v>
+        <v>-2.284592151641846</v>
       </c>
       <c r="FI2">
-        <v>7.872958660125732</v>
+        <v>7.400176525115967</v>
       </c>
       <c r="FJ2">
-        <v>2.033217191696167</v>
+        <v>1.707501769065857</v>
       </c>
       <c r="FK2">
-        <v>-6.154685497283936</v>
+        <v>-5.715975761413574</v>
       </c>
       <c r="FL2">
-        <v>-2.316136837005615</v>
+        <v>-2.0375816822052</v>
       </c>
       <c r="FM2">
-        <v>-4.033343315124512</v>
+        <v>-3.761019468307495</v>
       </c>
       <c r="FN2">
-        <v>1.419567704200745</v>
+        <v>1.850892543792725</v>
       </c>
       <c r="FO2">
-        <v>-2.17515754699707</v>
+        <v>-1.722033619880676</v>
       </c>
       <c r="FP2">
-        <v>0.06340949982404709</v>
+        <v>-0.3822191953659058</v>
       </c>
       <c r="FQ2">
-        <v>1.117539286613464</v>
+        <v>0.6710889339447021</v>
       </c>
       <c r="FR2">
-        <v>3.334457635879517</v>
+        <v>2.928837299346924</v>
       </c>
       <c r="FS2">
-        <v>2.387357234954834</v>
+        <v>1.930944085121155</v>
       </c>
       <c r="FT2">
-        <v>1.684719324111938</v>
+        <v>1.241925120353699</v>
       </c>
       <c r="FU2">
-        <v>-0.6714387536048889</v>
+        <v>-1.124272346496582</v>
       </c>
       <c r="FV2">
-        <v>-1.655043363571167</v>
+        <v>-2.118398427963257</v>
       </c>
       <c r="FW2">
-        <v>-3.775578498840332</v>
+        <v>-4.219624996185303</v>
       </c>
       <c r="FX2">
-        <v>-1.076225161552429</v>
+        <v>-0.9634455442428589</v>
       </c>
       <c r="FY2">
-        <v>0.5486522316932678</v>
+        <v>0.7280024886131287</v>
       </c>
       <c r="FZ2">
-        <v>0.8522049784660339</v>
+        <v>1.272027134895325</v>
       </c>
       <c r="GA2">
-        <v>4.84949779510498</v>
+        <v>4.765512466430664</v>
       </c>
       <c r="GB2">
-        <v>-2.974443197250366</v>
+        <v>-2.489546060562134</v>
       </c>
       <c r="GC2">
-        <v>-7.859085559844971</v>
+        <v>-8.219179153442383</v>
       </c>
       <c r="GD2">
-        <v>-5.061844825744629</v>
+        <v>-5.557778835296631</v>
       </c>
       <c r="GE2">
-        <v>1.675509810447693</v>
+        <v>1.238741278648376</v>
       </c>
       <c r="GF2">
-        <v>-12.72201442718506</v>
+        <v>-13.08703136444092</v>
       </c>
       <c r="GG2">
-        <v>-8.510401725769043</v>
+        <v>-8.81611156463623</v>
       </c>
       <c r="GH2">
-        <v>-0.2303972989320755</v>
+        <v>-0.7137947678565979</v>
       </c>
       <c r="GI2">
-        <v>-10.04757595062256</v>
+        <v>-10.24954605102539</v>
       </c>
       <c r="GJ2">
-        <v>-4.431841373443604</v>
+        <v>-4.015227794647217</v>
       </c>
       <c r="GK2">
-        <v>-1.146271944046021</v>
+        <v>-1.392470002174377</v>
       </c>
       <c r="GL2">
-        <v>4.971299648284912</v>
+        <v>5.404353618621826</v>
       </c>
       <c r="GM2">
-        <v>7.027325630187988</v>
+        <v>6.750238418579102</v>
       </c>
       <c r="GN2">
-        <v>-12.89171504974365</v>
+        <v>-12.34000587463379</v>
       </c>
       <c r="GO2">
-        <v>-5.641751289367676</v>
+        <v>-5.988804340362549</v>
       </c>
       <c r="GP2">
-        <v>-0.006314643658697605</v>
+        <v>-0.4906381666660309</v>
       </c>
       <c r="GQ2">
-        <v>2.5720055103302</v>
+        <v>2.795818567276001</v>
       </c>
       <c r="GR2">
-        <v>-3.582502603530884</v>
+        <v>-3.406770706176758</v>
       </c>
       <c r="GS2">
-        <v>-15.30126857757568</v>
+        <v>-14.90198040008545</v>
       </c>
       <c r="GT2">
-        <v>-0.6001167297363281</v>
+        <v>-0.441462904214859</v>
       </c>
       <c r="GU2">
-        <v>2.027192354202271</v>
+        <v>2.496374845504761</v>
       </c>
       <c r="GV2">
-        <v>-2.923027038574219</v>
+        <v>-3.34147047996521</v>
       </c>
       <c r="GW2">
-        <v>-13.82944774627686</v>
+        <v>-13.92954254150391</v>
       </c>
       <c r="GX2">
-        <v>1.502187848091125</v>
+        <v>1.012664556503296</v>
       </c>
       <c r="GY2">
-        <v>0.8877584934234619</v>
+        <v>0.4100650250911713</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Energy.xlsx
+++ b/static/Models/Classification/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.7240554094314575</v>
+        <v>-0.1510118544101715</v>
       </c>
       <c r="C2">
-        <v>3.147067070007324</v>
+        <v>3.754727602005005</v>
       </c>
       <c r="D2">
-        <v>9.18179988861084</v>
+        <v>9.347089767456055</v>
       </c>
       <c r="E2">
-        <v>-1.786514163017273</v>
+        <v>-2.514972686767578</v>
       </c>
       <c r="F2">
-        <v>3.228117704391479</v>
+        <v>2.468543529510498</v>
       </c>
       <c r="G2">
-        <v>3.296403408050537</v>
+        <v>4.03297758102417</v>
       </c>
       <c r="H2">
-        <v>4.569109439849854</v>
+        <v>4.546123504638672</v>
       </c>
       <c r="I2">
-        <v>1.21751594543457</v>
+        <v>1.767518043518066</v>
       </c>
       <c r="J2">
-        <v>-2.949679851531982</v>
+        <v>-3.754561901092529</v>
       </c>
       <c r="K2">
-        <v>5.671655178070068</v>
+        <v>4.974253177642822</v>
       </c>
       <c r="L2">
-        <v>0.9358683228492737</v>
+        <v>1.29865825176239</v>
       </c>
       <c r="M2">
-        <v>-1.846133351325989</v>
+        <v>-2.283032655715942</v>
       </c>
       <c r="N2">
-        <v>2.844382047653198</v>
+        <v>1.04090678691864</v>
       </c>
       <c r="O2">
-        <v>3.228044509887695</v>
+        <v>1.784468173980713</v>
       </c>
       <c r="P2">
-        <v>1.870925545692444</v>
+        <v>0.9376591444015503</v>
       </c>
       <c r="Q2">
-        <v>4.584824562072754</v>
+        <v>4.595198631286621</v>
       </c>
       <c r="R2">
-        <v>-4.19706916809082</v>
+        <v>-4.865272045135498</v>
       </c>
       <c r="S2">
-        <v>0.6677793860435486</v>
+        <v>1.238049268722534</v>
       </c>
       <c r="T2">
-        <v>-0.4531379640102386</v>
+        <v>0.01906386949121952</v>
       </c>
       <c r="U2">
-        <v>7.017416000366211</v>
+        <v>5.8964524269104</v>
       </c>
       <c r="V2">
-        <v>0.05857587233185768</v>
+        <v>0.5329986214637756</v>
       </c>
       <c r="W2">
-        <v>1.810400366783142</v>
+        <v>2.692884683609009</v>
       </c>
       <c r="X2">
-        <v>-1.337162494659424</v>
+        <v>-0.6770480275154114</v>
       </c>
       <c r="Y2">
-        <v>-7.834046840667725</v>
+        <v>-7.209989547729492</v>
       </c>
       <c r="Z2">
-        <v>-8.678543090820312</v>
+        <v>-9.385784149169922</v>
       </c>
       <c r="AA2">
-        <v>-0.8824373483657837</v>
+        <v>-1.094657063484192</v>
       </c>
       <c r="AB2">
-        <v>11.13675403594971</v>
+        <v>10.08870410919189</v>
       </c>
       <c r="AC2">
-        <v>1.416222095489502</v>
+        <v>2.304838180541992</v>
       </c>
       <c r="AD2">
-        <v>-1.202950954437256</v>
+        <v>-0.7009349465370178</v>
       </c>
       <c r="AE2">
-        <v>2.955744504928589</v>
+        <v>2.308001041412354</v>
       </c>
       <c r="AF2">
-        <v>1.782352089881897</v>
+        <v>1.884521722793579</v>
       </c>
       <c r="AG2">
-        <v>-7.605636596679688</v>
+        <v>-7.499587535858154</v>
       </c>
       <c r="AH2">
-        <v>-26.79802894592285</v>
+        <v>-26.72497940063477</v>
       </c>
       <c r="AI2">
-        <v>1.772678971290588</v>
+        <v>1.780548930168152</v>
       </c>
       <c r="AJ2">
-        <v>0.6424230933189392</v>
+        <v>0.1022330150008202</v>
       </c>
       <c r="AK2">
-        <v>-0.3519594073295593</v>
+        <v>-0.01009695138782263</v>
       </c>
       <c r="AL2">
-        <v>-2.123012542724609</v>
+        <v>-1.950619101524353</v>
       </c>
       <c r="AM2">
-        <v>-6.444343566894531</v>
+        <v>-6.825854778289795</v>
       </c>
       <c r="AN2">
-        <v>0.7537808418273926</v>
+        <v>0.334803968667984</v>
       </c>
       <c r="AO2">
-        <v>-8.9149169921875</v>
+        <v>-8.584010124206543</v>
       </c>
       <c r="AP2">
-        <v>-8.623126983642578</v>
+        <v>-8.859725952148438</v>
       </c>
       <c r="AQ2">
-        <v>1.345218777656555</v>
+        <v>1.141215920448303</v>
       </c>
       <c r="AR2">
-        <v>2.514163017272949</v>
+        <v>3.418962478637695</v>
       </c>
       <c r="AS2">
-        <v>-12.23511505126953</v>
+        <v>-12.18646335601807</v>
       </c>
       <c r="AT2">
-        <v>-6.719501972198486</v>
+        <v>-5.840138912200928</v>
       </c>
       <c r="AU2">
-        <v>-8.375269889831543</v>
+        <v>-8.146215438842773</v>
       </c>
       <c r="AV2">
-        <v>-8.667179107666016</v>
+        <v>-8.70219898223877</v>
       </c>
       <c r="AW2">
-        <v>-2.608640193939209</v>
+        <v>-2.574966430664062</v>
       </c>
       <c r="AX2">
-        <v>3.199865579605103</v>
+        <v>3.836391925811768</v>
       </c>
       <c r="AY2">
-        <v>-1.859301090240479</v>
+        <v>-1.326633810997009</v>
       </c>
       <c r="AZ2">
-        <v>-7.161369800567627</v>
+        <v>-5.809186458587646</v>
       </c>
       <c r="BA2">
-        <v>2.429680347442627</v>
+        <v>3.509849786758423</v>
       </c>
       <c r="BB2">
-        <v>-8.88960075378418</v>
+        <v>-9.146270751953125</v>
       </c>
       <c r="BC2">
-        <v>-1.017019271850586</v>
+        <v>-0.407894492149353</v>
       </c>
       <c r="BD2">
-        <v>-1.715340614318848</v>
+        <v>-1.127116560935974</v>
       </c>
       <c r="BE2">
-        <v>-2.11987566947937</v>
+        <v>-2.951717376708984</v>
       </c>
       <c r="BF2">
-        <v>-0.6251864433288574</v>
+        <v>-0.09019226580858231</v>
       </c>
       <c r="BG2">
-        <v>0.4797433912754059</v>
+        <v>0.9432979226112366</v>
       </c>
       <c r="BH2">
-        <v>-3.025093555450439</v>
+        <v>-2.842552423477173</v>
       </c>
       <c r="BI2">
-        <v>-0.3679892122745514</v>
+        <v>0.05137148126959801</v>
       </c>
       <c r="BJ2">
-        <v>0.749720573425293</v>
+        <v>1.653298735618591</v>
       </c>
       <c r="BK2">
-        <v>-3.215214967727661</v>
+        <v>-2.448403358459473</v>
       </c>
       <c r="BL2">
-        <v>1.959046602249146</v>
+        <v>1.251386284828186</v>
       </c>
       <c r="BM2">
-        <v>-12.15451812744141</v>
+        <v>-11.98902034759521</v>
       </c>
       <c r="BN2">
-        <v>0.1200511530041695</v>
+        <v>0.2409044057130814</v>
       </c>
       <c r="BO2">
-        <v>-2.708489179611206</v>
+        <v>-2.55938982963562</v>
       </c>
       <c r="BP2">
-        <v>2.707035064697266</v>
+        <v>1.918816804885864</v>
       </c>
       <c r="BQ2">
-        <v>-4.522900104522705</v>
+        <v>-5.989877223968506</v>
       </c>
       <c r="BR2">
-        <v>0.855772078037262</v>
+        <v>-0.3200831711292267</v>
       </c>
       <c r="BS2">
-        <v>0.1632643938064575</v>
+        <v>0.08780017495155334</v>
       </c>
       <c r="BT2">
-        <v>-3.686227798461914</v>
+        <v>-3.455198287963867</v>
       </c>
       <c r="BU2">
-        <v>-0.4807563722133636</v>
+        <v>-0.2464657872915268</v>
       </c>
       <c r="BV2">
-        <v>-3.463226318359375</v>
+        <v>-3.195315599441528</v>
       </c>
       <c r="BW2">
-        <v>-0.8761396408081055</v>
+        <v>0.3317662179470062</v>
       </c>
       <c r="BX2">
-        <v>-13.61869812011719</v>
+        <v>-14.50032329559326</v>
       </c>
       <c r="BY2">
-        <v>0.9581145048141479</v>
+        <v>0.3688863813877106</v>
       </c>
       <c r="BZ2">
-        <v>-0.2513138651847839</v>
+        <v>-0.8867994546890259</v>
       </c>
       <c r="CA2">
-        <v>-1.069321990013123</v>
+        <v>-1.012665390968323</v>
       </c>
       <c r="CB2">
-        <v>4.940249919891357</v>
+        <v>5.011645793914795</v>
       </c>
       <c r="CC2">
-        <v>-2.11420726776123</v>
+        <v>-1.938913702964783</v>
       </c>
       <c r="CD2">
-        <v>1.48024594783783</v>
+        <v>1.223823666572571</v>
       </c>
       <c r="CE2">
-        <v>0.4845253229141235</v>
+        <v>1.882663726806641</v>
       </c>
       <c r="CF2">
-        <v>-1.715674042701721</v>
+        <v>-2.135769605636597</v>
       </c>
       <c r="CG2">
-        <v>-0.5563022494316101</v>
+        <v>-1.145393252372742</v>
       </c>
       <c r="CH2">
-        <v>7.879699230194092</v>
+        <v>6.572910785675049</v>
       </c>
       <c r="CI2">
-        <v>-2.787600994110107</v>
+        <v>-2.099493741989136</v>
       </c>
       <c r="CJ2">
-        <v>2.874892473220825</v>
+        <v>3.483259677886963</v>
       </c>
       <c r="CK2">
-        <v>-1.36505126953125</v>
+        <v>-1.117681980133057</v>
       </c>
       <c r="CL2">
-        <v>-0.9488059878349304</v>
+        <v>-0.9758465886116028</v>
       </c>
       <c r="CM2">
-        <v>-7.114615917205811</v>
+        <v>-7.623926162719727</v>
       </c>
       <c r="CN2">
-        <v>-2.017807722091675</v>
+        <v>-2.578102111816406</v>
       </c>
       <c r="CO2">
-        <v>-2.607097625732422</v>
+        <v>-2.139306306838989</v>
       </c>
       <c r="CP2">
-        <v>-4.430416107177734</v>
+        <v>-3.230440378189087</v>
       </c>
       <c r="CQ2">
-        <v>3.612528085708618</v>
+        <v>4.079104423522949</v>
       </c>
       <c r="CR2">
-        <v>0.3603658676147461</v>
+        <v>0.5164076089859009</v>
       </c>
       <c r="CS2">
-        <v>1.801108717918396</v>
+        <v>2.619769811630249</v>
       </c>
       <c r="CT2">
-        <v>0.321625143289566</v>
+        <v>0.479789137840271</v>
       </c>
       <c r="CU2">
-        <v>0.160609170794487</v>
+        <v>0.2693907916545868</v>
       </c>
       <c r="CV2">
-        <v>0.4982200264930725</v>
+        <v>1.279889941215515</v>
       </c>
       <c r="CW2">
-        <v>-10.90398406982422</v>
+        <v>-11.1361665725708</v>
       </c>
       <c r="CX2">
-        <v>1.025227665901184</v>
+        <v>-0.2333671897649765</v>
       </c>
       <c r="CY2">
-        <v>2.495026826858521</v>
+        <v>2.310933589935303</v>
       </c>
       <c r="CZ2">
-        <v>0.9045478701591492</v>
+        <v>0.4576416313648224</v>
       </c>
       <c r="DA2">
-        <v>-7.060914516448975</v>
+        <v>-5.960858821868896</v>
       </c>
       <c r="DB2">
-        <v>2.376347303390503</v>
+        <v>3.346971988677979</v>
       </c>
       <c r="DC2">
-        <v>-0.4212239682674408</v>
+        <v>-1.606222033500671</v>
       </c>
       <c r="DD2">
-        <v>-15.37870407104492</v>
+        <v>-15.93245124816895</v>
       </c>
       <c r="DE2">
-        <v>0.1935776025056839</v>
+        <v>0.9208730459213257</v>
       </c>
       <c r="DF2">
-        <v>-3.571483135223389</v>
+        <v>-3.700111150741577</v>
       </c>
       <c r="DG2">
-        <v>0.5655916929244995</v>
+        <v>1.446460247039795</v>
       </c>
       <c r="DH2">
-        <v>6.091907501220703</v>
+        <v>5.699453353881836</v>
       </c>
       <c r="DI2">
-        <v>1.530380487442017</v>
+        <v>1.649208664894104</v>
       </c>
       <c r="DJ2">
-        <v>5.059657096862793</v>
+        <v>5.220328330993652</v>
       </c>
       <c r="DK2">
-        <v>22.33529853820801</v>
+        <v>22.84832382202148</v>
       </c>
       <c r="DL2">
-        <v>3.223211526870728</v>
+        <v>2.724806547164917</v>
       </c>
       <c r="DM2">
-        <v>-10.08931159973145</v>
+        <v>-8.304224014282227</v>
       </c>
       <c r="DN2">
-        <v>-0.1159258261322975</v>
+        <v>0.2849969267845154</v>
       </c>
       <c r="DO2">
-        <v>-5.867116451263428</v>
+        <v>-6.58859395980835</v>
       </c>
       <c r="DP2">
-        <v>-0.06356613337993622</v>
+        <v>-0.9378854036331177</v>
       </c>
       <c r="DQ2">
-        <v>1.027960777282715</v>
+        <v>1.659544348716736</v>
       </c>
       <c r="DR2">
-        <v>3.062456130981445</v>
+        <v>4.173403263092041</v>
       </c>
       <c r="DS2">
-        <v>-5.849628925323486</v>
+        <v>-5.214284420013428</v>
       </c>
       <c r="DT2">
-        <v>-9.461490631103516</v>
+        <v>-9.395212173461914</v>
       </c>
       <c r="DU2">
-        <v>-9.277938842773438</v>
+        <v>-10.35518360137939</v>
       </c>
       <c r="DV2">
-        <v>-1.277474522590637</v>
+        <v>-1.759713411331177</v>
       </c>
       <c r="DW2">
-        <v>1.490711212158203</v>
+        <v>2.342779397964478</v>
       </c>
       <c r="DX2">
-        <v>-0.453101634979248</v>
+        <v>-0.09480519592761993</v>
       </c>
       <c r="DY2">
-        <v>12.13297271728516</v>
+        <v>12.27371311187744</v>
       </c>
       <c r="DZ2">
-        <v>0.6760396361351013</v>
+        <v>0.8223357200622559</v>
       </c>
       <c r="EA2">
-        <v>10.2236967086792</v>
+        <v>10.8625955581665</v>
       </c>
       <c r="EB2">
-        <v>-2.241034984588623</v>
+        <v>-1.707815408706665</v>
       </c>
       <c r="EC2">
-        <v>0.442340224981308</v>
+        <v>1.443607091903687</v>
       </c>
       <c r="ED2">
-        <v>0.7050786018371582</v>
+        <v>1.20330822467804</v>
       </c>
       <c r="EE2">
-        <v>-2.555471181869507</v>
+        <v>-2.135817766189575</v>
       </c>
       <c r="EF2">
-        <v>4.404540061950684</v>
+        <v>5.618832588195801</v>
       </c>
       <c r="EG2">
-        <v>2.656731128692627</v>
+        <v>2.530458927154541</v>
       </c>
       <c r="EH2">
-        <v>-24.90649032592773</v>
+        <v>-25.38526344299316</v>
       </c>
       <c r="EI2">
-        <v>-2.104501962661743</v>
+        <v>-2.431445598602295</v>
       </c>
       <c r="EJ2">
-        <v>0.3075787723064423</v>
+        <v>1.464864611625671</v>
       </c>
       <c r="EK2">
-        <v>1.069760084152222</v>
+        <v>1.085633039474487</v>
       </c>
       <c r="EL2">
-        <v>-2.326687574386597</v>
+        <v>-1.824644446372986</v>
       </c>
       <c r="EM2">
-        <v>5.818295955657959</v>
+        <v>5.301266670227051</v>
       </c>
       <c r="EN2">
-        <v>8.67670726776123</v>
+        <v>9.066173553466797</v>
       </c>
       <c r="EO2">
-        <v>-0.2742058336734772</v>
+        <v>-0.7537510395050049</v>
       </c>
       <c r="EP2">
-        <v>-0.2262700796127319</v>
+        <v>-0.4572143852710724</v>
       </c>
       <c r="EQ2">
-        <v>2.260278224945068</v>
+        <v>1.29702353477478</v>
       </c>
       <c r="ER2">
-        <v>3.99633002281189</v>
+        <v>2.941248893737793</v>
       </c>
       <c r="ES2">
-        <v>2.361716508865356</v>
+        <v>2.072098970413208</v>
       </c>
       <c r="ET2">
-        <v>1.48431396484375</v>
+        <v>1.026349544525146</v>
       </c>
       <c r="EU2">
-        <v>-6.887769222259521</v>
+        <v>-7.024104118347168</v>
       </c>
       <c r="EV2">
-        <v>-8.238085746765137</v>
+        <v>-9.03569221496582</v>
       </c>
       <c r="EW2">
-        <v>-1.957316637039185</v>
+        <v>-1.268166065216064</v>
       </c>
       <c r="EX2">
-        <v>0.3780920803546906</v>
+        <v>1.126256704330444</v>
       </c>
       <c r="EY2">
-        <v>1.703425765037537</v>
+        <v>2.083785533905029</v>
       </c>
       <c r="EZ2">
-        <v>-8.209396362304688</v>
+        <v>-7.893801212310791</v>
       </c>
       <c r="FA2">
-        <v>-0.7458687424659729</v>
+        <v>-0.8640418648719788</v>
       </c>
       <c r="FB2">
-        <v>-0.7144089341163635</v>
+        <v>0.04367268830537796</v>
       </c>
       <c r="FC2">
-        <v>6.409374237060547</v>
+        <v>6.393067359924316</v>
       </c>
       <c r="FD2">
-        <v>3.43757700920105</v>
+        <v>3.014456748962402</v>
       </c>
       <c r="FE2">
-        <v>1.590509295463562</v>
+        <v>1.677767753601074</v>
       </c>
       <c r="FF2">
-        <v>-5.196278095245361</v>
+        <v>-5.667433261871338</v>
       </c>
       <c r="FG2">
-        <v>-7.994048118591309</v>
+        <v>-9.353847503662109</v>
       </c>
       <c r="FH2">
-        <v>-2.284592151641846</v>
+        <v>-1.037092924118042</v>
       </c>
       <c r="FI2">
-        <v>7.400176525115967</v>
+        <v>7.436958789825439</v>
       </c>
       <c r="FJ2">
-        <v>1.707501769065857</v>
+        <v>1.198880314826965</v>
       </c>
       <c r="FK2">
-        <v>-5.715975761413574</v>
+        <v>-4.985262870788574</v>
       </c>
       <c r="FL2">
-        <v>-2.0375816822052</v>
+        <v>-2.930426597595215</v>
       </c>
       <c r="FM2">
-        <v>-3.761019468307495</v>
+        <v>-2.73698902130127</v>
       </c>
       <c r="FN2">
-        <v>1.850892543792725</v>
+        <v>1.43985390663147</v>
       </c>
       <c r="FO2">
-        <v>-1.722033619880676</v>
+        <v>-0.8206449151039124</v>
       </c>
       <c r="FP2">
-        <v>-0.3822191953659058</v>
+        <v>-0.6228286027908325</v>
       </c>
       <c r="FQ2">
-        <v>0.6710889339447021</v>
+        <v>1.19507896900177</v>
       </c>
       <c r="FR2">
-        <v>2.928837299346924</v>
+        <v>3.627174139022827</v>
       </c>
       <c r="FS2">
-        <v>1.930944085121155</v>
+        <v>2.239711761474609</v>
       </c>
       <c r="FT2">
-        <v>1.241925120353699</v>
+        <v>1.477161049842834</v>
       </c>
       <c r="FU2">
-        <v>-1.124272346496582</v>
+        <v>-0.5566845536231995</v>
       </c>
       <c r="FV2">
-        <v>-2.118398427963257</v>
+        <v>-1.85918664932251</v>
       </c>
       <c r="FW2">
-        <v>-4.219624996185303</v>
+        <v>-3.894479036331177</v>
       </c>
       <c r="FX2">
-        <v>-0.9634455442428589</v>
+        <v>-1.08348023891449</v>
       </c>
       <c r="FY2">
-        <v>0.7280024886131287</v>
+        <v>0.1493988335132599</v>
       </c>
       <c r="FZ2">
-        <v>1.272027134895325</v>
+        <v>1.573946118354797</v>
       </c>
       <c r="GA2">
-        <v>4.765512466430664</v>
+        <v>4.778788566589355</v>
       </c>
       <c r="GB2">
-        <v>-2.489546060562134</v>
+        <v>-2.406994342803955</v>
       </c>
       <c r="GC2">
-        <v>-8.219179153442383</v>
+        <v>-9.178080558776855</v>
       </c>
       <c r="GD2">
-        <v>-5.557778835296631</v>
+        <v>-5.404754638671875</v>
       </c>
       <c r="GE2">
-        <v>1.238741278648376</v>
+        <v>1.737621903419495</v>
       </c>
       <c r="GF2">
-        <v>-13.08703136444092</v>
+        <v>-13.58748149871826</v>
       </c>
       <c r="GG2">
-        <v>-8.81611156463623</v>
+        <v>-9.586210250854492</v>
       </c>
       <c r="GH2">
-        <v>-0.7137947678565979</v>
+        <v>-2.633130073547363</v>
       </c>
       <c r="GI2">
-        <v>-10.24954605102539</v>
+        <v>-11.3326940536499</v>
       </c>
       <c r="GJ2">
-        <v>-4.015227794647217</v>
+        <v>-3.181979894638062</v>
       </c>
       <c r="GK2">
-        <v>-1.392470002174377</v>
+        <v>-2.124360084533691</v>
       </c>
       <c r="GL2">
-        <v>5.404353618621826</v>
+        <v>5.158063888549805</v>
       </c>
       <c r="GM2">
-        <v>6.750238418579102</v>
+        <v>8.144485473632812</v>
       </c>
       <c r="GN2">
-        <v>-12.34000587463379</v>
+        <v>-11.97346878051758</v>
       </c>
       <c r="GO2">
-        <v>-5.988804340362549</v>
+        <v>-6.358868598937988</v>
       </c>
       <c r="GP2">
-        <v>-0.4906381666660309</v>
+        <v>-0.1517563760280609</v>
       </c>
       <c r="GQ2">
-        <v>2.795818567276001</v>
+        <v>3.652389526367188</v>
       </c>
       <c r="GR2">
-        <v>-3.406770706176758</v>
+        <v>-3.581578254699707</v>
       </c>
       <c r="GS2">
-        <v>-14.90198040008545</v>
+        <v>-14.93309307098389</v>
       </c>
       <c r="GT2">
-        <v>-0.441462904214859</v>
+        <v>0.585648238658905</v>
       </c>
       <c r="GU2">
-        <v>2.496374845504761</v>
+        <v>2.334996938705444</v>
       </c>
       <c r="GV2">
-        <v>-3.34147047996521</v>
+        <v>-3.273714065551758</v>
       </c>
       <c r="GW2">
-        <v>-13.92954254150391</v>
+        <v>-14.68546485900879</v>
       </c>
       <c r="GX2">
-        <v>1.012664556503296</v>
+        <v>1.360288739204407</v>
       </c>
       <c r="GY2">
-        <v>0.4100650250911713</v>
+        <v>0.908570408821106</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Energy.xlsx
+++ b/static/Models/Classification/Equation/Energy.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4390784502029419</v>
+        <v>-0.3025257587432861</v>
       </c>
       <c r="C2" t="n">
-        <v>3.934491157531738</v>
+        <v>4.226858615875244</v>
       </c>
       <c r="D2" t="n">
-        <v>9.000273704528809</v>
+        <v>9.40650463104248</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.221148014068604</v>
+        <v>-2.016296625137329</v>
       </c>
       <c r="F2" t="n">
-        <v>2.199134588241577</v>
+        <v>2.182333707809448</v>
       </c>
       <c r="G2" t="n">
-        <v>3.67809534072876</v>
+        <v>3.200068235397339</v>
       </c>
       <c r="H2" t="n">
-        <v>4.881138801574707</v>
+        <v>4.465918064117432</v>
       </c>
       <c r="I2" t="n">
-        <v>2.045616149902344</v>
+        <v>1.580472826957703</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.608293056488037</v>
+        <v>-4.173219203948975</v>
       </c>
       <c r="K2" t="n">
-        <v>4.68032169342041</v>
+        <v>4.216335773468018</v>
       </c>
       <c r="L2" t="n">
-        <v>1.604207396507263</v>
+        <v>1.944877028465271</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.952125310897827</v>
+        <v>-1.698957443237305</v>
       </c>
       <c r="N2" t="n">
-        <v>1.304403066635132</v>
+        <v>1.059631705284119</v>
       </c>
       <c r="O2" t="n">
-        <v>2.06482720375061</v>
+        <v>1.730376243591309</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6228656768798828</v>
+        <v>1.148040413856506</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.882127285003662</v>
+        <v>5.619832515716553</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.139610290527344</v>
+        <v>-4.75398063659668</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9533197283744812</v>
+        <v>0.5278166532516479</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3030820786952972</v>
+        <v>-0.1137157380580902</v>
       </c>
       <c r="U2" t="n">
-        <v>6.184486389160156</v>
+        <v>5.712347030639648</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8008638024330139</v>
+        <v>1.497024178504944</v>
       </c>
       <c r="W2" t="n">
-        <v>2.422355175018311</v>
+        <v>2.849319696426392</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9348191618919373</v>
+        <v>-0.6843996047973633</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.925937175750732</v>
+        <v>-6.570783138275146</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9.079238891601562</v>
+        <v>-9.21284008026123</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.371840119361877</v>
+        <v>-0.8831363916397095</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.36509799957275</v>
+        <v>9.943652153015137</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.022204637527466</v>
+        <v>2.506465911865234</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.4224759936332703</v>
+        <v>-0.8656629920005798</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.607840776443481</v>
+        <v>2.159852266311646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609490156173706</v>
+        <v>2.086702823638916</v>
       </c>
       <c r="AG2" t="n">
-        <v>-7.779147148132324</v>
+        <v>-7.511579513549805</v>
       </c>
       <c r="AH2" t="n">
-        <v>-26.42975807189941</v>
+        <v>-26.96401214599609</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.050682306289673</v>
+        <v>2.515916347503662</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.04243072494864464</v>
+        <v>0.488905668258667</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2816892564296722</v>
+        <v>0.04198576137423515</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.681248068809509</v>
+        <v>-1.39272141456604</v>
       </c>
       <c r="AM2" t="n">
-        <v>-7.098079204559326</v>
+        <v>-7.544118881225586</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.01590881496667862</v>
+        <v>-0.5064546465873718</v>
       </c>
       <c r="AO2" t="n">
-        <v>-8.891315460205078</v>
+        <v>-9.002861022949219</v>
       </c>
       <c r="AP2" t="n">
-        <v>-9.16283130645752</v>
+        <v>-9.635016441345215</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8040205240249634</v>
+        <v>1.443096518516541</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.737260818481445</v>
+        <v>3.40239953994751</v>
       </c>
       <c r="AS2" t="n">
-        <v>-12.54262924194336</v>
+        <v>-13.03915500640869</v>
       </c>
       <c r="AT2" t="n">
-        <v>-6.097257137298584</v>
+        <v>-6.496969223022461</v>
       </c>
       <c r="AU2" t="n">
-        <v>-8.436013221740723</v>
+        <v>-7.991068363189697</v>
       </c>
       <c r="AV2" t="n">
-        <v>-9.003973960876465</v>
+        <v>-9.506902694702148</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.852708101272583</v>
+        <v>-2.364925861358643</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.170069217681885</v>
+        <v>3.733473300933838</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.604139804840088</v>
+        <v>-1.176796913146973</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-5.487000942230225</v>
+        <v>-4.938403606414795</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.160490751266479</v>
+        <v>3.571056127548218</v>
       </c>
       <c r="BB2" t="n">
-        <v>-8.862886428833008</v>
+        <v>-8.772204399108887</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.634545624256134</v>
+        <v>-0.09146605432033539</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.8582302927970886</v>
+        <v>-1.327254891395569</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.676226139068604</v>
+        <v>-2.397393465042114</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1848136633634567</v>
+        <v>0.7031996250152588</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.221199154853821</v>
+        <v>0.7547979950904846</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.609965085983276</v>
+        <v>-2.349345684051514</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.3224812746047974</v>
+        <v>-0.1267278343439102</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.714192390441895</v>
+        <v>1.157939195632935</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.714869499206543</v>
+        <v>-3.061778783798218</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.968001127243042</v>
+        <v>1.168964028358459</v>
       </c>
       <c r="BM2" t="n">
-        <v>-12.28128242492676</v>
+        <v>-11.9224271774292</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.09251172095537186</v>
+        <v>0.3012229800224304</v>
       </c>
       <c r="BO2" t="n">
-        <v>-2.311725616455078</v>
+        <v>-1.976378917694092</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.209344863891602</v>
+        <v>1.687526941299438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-5.619120121002197</v>
+        <v>-6.019150257110596</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.02606844156980515</v>
+        <v>0.334511935710907</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.379688024520874</v>
+        <v>0.640580415725708</v>
       </c>
       <c r="BT2" t="n">
-        <v>-3.727876424789429</v>
+        <v>-3.305835008621216</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0341443233191967</v>
+        <v>-0.4396333396434784</v>
       </c>
       <c r="BV2" t="n">
-        <v>-3.684412717819214</v>
+        <v>-3.969115495681763</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.04963412508368492</v>
+        <v>-0.6402245163917542</v>
       </c>
       <c r="BX2" t="n">
-        <v>-14.23921203613281</v>
+        <v>-14.74942302703857</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6695722341537476</v>
+        <v>0.7659595012664795</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.7056807279586792</v>
+        <v>-1.287903308868408</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.300621509552002</v>
+        <v>-0.8536370396614075</v>
       </c>
       <c r="CB2" t="n">
-        <v>5.120538234710693</v>
+        <v>4.544898509979248</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.668965578079224</v>
+        <v>-2.15819525718689</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.9584945440292358</v>
+        <v>0.4181367754936218</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.552408695220947</v>
+        <v>1.447279930114746</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.841019749641418</v>
+        <v>-2.383355379104614</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.9063323736190796</v>
+        <v>-0.5950043797492981</v>
       </c>
       <c r="CH2" t="n">
-        <v>6.888985633850098</v>
+        <v>6.423056602478027</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.827133774757385</v>
+        <v>-2.27769947052002</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.77358865737915</v>
+        <v>3.190124034881592</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.8336833715438843</v>
+        <v>-1.296251893043518</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.7070184946060181</v>
+        <v>-1.195759892463684</v>
       </c>
       <c r="CM2" t="n">
-        <v>-7.357144355773926</v>
+        <v>-7.049097537994385</v>
       </c>
       <c r="CN2" t="n">
-        <v>-2.889708995819092</v>
+        <v>-2.33149790763855</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.871138572692871</v>
+        <v>-2.349493026733398</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.933390378952026</v>
+        <v>-3.393150091171265</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.320535659790039</v>
+        <v>4.355863571166992</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.4367963075637817</v>
+        <v>-0.03987922146916389</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.880792856216431</v>
+        <v>2.385596036911011</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.7431060671806335</v>
+        <v>0.2377262115478516</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.09003480523824692</v>
+        <v>-0.3716583847999573</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.9719864726066589</v>
+        <v>0.5899049043655396</v>
       </c>
       <c r="CW2" t="n">
-        <v>-10.84387302398682</v>
+        <v>-10.41900157928467</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.05002584680914879</v>
+        <v>0.5636000633239746</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.034395456314087</v>
+        <v>2.480937957763672</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.1772381812334061</v>
+        <v>0.6123145818710327</v>
       </c>
       <c r="DA2" t="n">
-        <v>-5.631039619445801</v>
+        <v>-5.30626916885376</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.141089200973511</v>
+        <v>2.735600471496582</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.871921420097351</v>
+        <v>-1.469310402870178</v>
       </c>
       <c r="DD2" t="n">
-        <v>-15.63697624206543</v>
+        <v>-16.09165191650391</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.175186276435852</v>
+        <v>0.6780081987380981</v>
       </c>
       <c r="DF2" t="n">
-        <v>-3.911646366119385</v>
+        <v>-3.422050714492798</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.180265665054321</v>
+        <v>0.8024426698684692</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.004661083221436</v>
+        <v>6.093044281005859</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.371216416358948</v>
+        <v>1.821046471595764</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.545900344848633</v>
+        <v>5.936012744903564</v>
       </c>
       <c r="DK2" t="n">
-        <v>22.47287368774414</v>
+        <v>21.84830665588379</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.920399904251099</v>
+        <v>3.602633237838745</v>
       </c>
       <c r="DM2" t="n">
-        <v>-8.338287353515625</v>
+        <v>-8.029177665710449</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.5577587485313416</v>
+        <v>0.07709783315658569</v>
       </c>
       <c r="DO2" t="n">
-        <v>-6.867068290710449</v>
+        <v>-7.419604778289795</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.225950837135315</v>
+        <v>-1.08939790725708</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.929403066635132</v>
+        <v>1.466747999191284</v>
       </c>
       <c r="DR2" t="n">
-        <v>3.866402864456177</v>
+        <v>3.278740167617798</v>
       </c>
       <c r="DS2" t="n">
-        <v>-4.875308513641357</v>
+        <v>-4.870789051055908</v>
       </c>
       <c r="DT2" t="n">
-        <v>-9.696281433105469</v>
+        <v>-9.391025543212891</v>
       </c>
       <c r="DU2" t="n">
-        <v>-10.70575904846191</v>
+        <v>-11.33905506134033</v>
       </c>
       <c r="DV2" t="n">
-        <v>-2.095760822296143</v>
+        <v>-1.712559700012207</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.632295608520508</v>
+        <v>2.069129943847656</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.1756155490875244</v>
+        <v>-0.3040752410888672</v>
       </c>
       <c r="DY2" t="n">
-        <v>12.47277450561523</v>
+        <v>12.05050754547119</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.5172386765480042</v>
+        <v>0.8176960945129395</v>
       </c>
       <c r="EA2" t="n">
-        <v>11.08817768096924</v>
+        <v>11.28180313110352</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.433084845542908</v>
+        <v>-1.893261432647705</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.148902773857117</v>
+        <v>1.54505729675293</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.484690070152283</v>
+        <v>1.055199265480042</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.855342388153076</v>
+        <v>-2.280221462249756</v>
       </c>
       <c r="EF2" t="n">
-        <v>5.94798755645752</v>
+        <v>5.579689979553223</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.272788524627686</v>
+        <v>1.809199333190918</v>
       </c>
       <c r="EH2" t="n">
-        <v>-25.09793281555176</v>
+        <v>-25.48109817504883</v>
       </c>
       <c r="EI2" t="n">
-        <v>-2.16580057144165</v>
+        <v>-2.726479530334473</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.760702013969421</v>
+        <v>1.413401961326599</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.365528583526611</v>
+        <v>0.9128769040107727</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.552890419960022</v>
+        <v>-2.031523466110229</v>
       </c>
       <c r="EM2" t="n">
-        <v>5.584921360015869</v>
+        <v>4.746146678924561</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.770417213439941</v>
+        <v>8.189386367797852</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.5185071229934692</v>
+        <v>-0.451506108045578</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.1374556720256805</v>
+        <v>0.4827157258987427</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.600331425666809</v>
+        <v>1.363107800483704</v>
       </c>
       <c r="ER2" t="n">
-        <v>3.174606323242188</v>
+        <v>2.827284336090088</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.357893228530884</v>
+        <v>1.991284966468811</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.7288598418235779</v>
+        <v>1.331622838973999</v>
       </c>
       <c r="EU2" t="n">
-        <v>-7.332592487335205</v>
+        <v>-7.150875091552734</v>
       </c>
       <c r="EV2" t="n">
-        <v>-9.354355812072754</v>
+        <v>-8.986631393432617</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.58831524848938</v>
+        <v>-1.176765918731689</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.8715856075286865</v>
+        <v>1.260422945022583</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.350707530975342</v>
+        <v>1.900379061698914</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-8.216307640075684</v>
+        <v>-8.611339569091797</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.6054003834724426</v>
+        <v>-0.297662079334259</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.3069486916065216</v>
+        <v>-0.1655596941709518</v>
       </c>
       <c r="FC2" t="n">
-        <v>6.703938484191895</v>
+        <v>7.262465953826904</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.732318162918091</v>
+        <v>3.160354614257812</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.045902729034424</v>
+        <v>2.261931896209717</v>
       </c>
       <c r="FF2" t="n">
-        <v>-5.966211795806885</v>
+        <v>-6.610368251800537</v>
       </c>
       <c r="FG2" t="n">
-        <v>-9.639575004577637</v>
+        <v>-10.11997413635254</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.32634973526001</v>
+        <v>-1.736214995384216</v>
       </c>
       <c r="FI2" t="n">
-        <v>7.144230842590332</v>
+        <v>7.300832748413086</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9066128730773926</v>
+        <v>0.457569807767868</v>
       </c>
       <c r="FK2" t="n">
-        <v>-4.679798126220703</v>
+        <v>-5.07506275177002</v>
       </c>
       <c r="FL2" t="n">
-        <v>-2.640741109848022</v>
+        <v>-3.332852840423584</v>
       </c>
       <c r="FM2" t="n">
-        <v>-2.445364475250244</v>
+        <v>-2.943583965301514</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.15894889831543</v>
+        <v>1.499422311782837</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.4299066066741943</v>
+        <v>0.1254284828901291</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.3045913875102997</v>
+        <v>0.6645588278770447</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.466925263404846</v>
+        <v>0.9850828051567078</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.895133018493652</v>
+        <v>3.425060033798218</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.504987955093384</v>
+        <v>2.009766578674316</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.747070550918579</v>
+        <v>1.293542265892029</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.2801679670810699</v>
+        <v>-0.7265770435333252</v>
       </c>
       <c r="FV2" t="n">
-        <v>-1.573424100875854</v>
+        <v>-2.042840480804443</v>
       </c>
       <c r="FW2" t="n">
-        <v>-3.611572504043579</v>
+        <v>-4.030874252319336</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.376877188682556</v>
+        <v>-0.4392004907131195</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.4710015654563904</v>
+        <v>0.7434787154197693</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.256485819816589</v>
+        <v>0.6875702738761902</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.503984928131104</v>
+        <v>4.172792911529541</v>
       </c>
       <c r="GB2" t="n">
-        <v>-2.692884922027588</v>
+        <v>-3.179817914962769</v>
       </c>
       <c r="GC2" t="n">
-        <v>-8.836791038513184</v>
+        <v>-9.161799430847168</v>
       </c>
       <c r="GD2" t="n">
-        <v>-5.333718776702881</v>
+        <v>-5.752906799316406</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.013719797134399</v>
+        <v>1.54130482673645</v>
       </c>
       <c r="GF2" t="n">
-        <v>-13.30122852325439</v>
+        <v>-13.7006664276123</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.300667762756348</v>
+        <v>-9.713579177856445</v>
       </c>
       <c r="GH2" t="n">
-        <v>-2.960524320602417</v>
+        <v>-2.242714405059814</v>
       </c>
       <c r="GI2" t="n">
-        <v>-11.03559970855713</v>
+        <v>-11.50119590759277</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-2.888098955154419</v>
+        <v>-3.085612058639526</v>
       </c>
       <c r="GK2" t="n">
-        <v>-2.399776697158813</v>
+        <v>-2.884632349014282</v>
       </c>
       <c r="GL2" t="n">
-        <v>5.464993953704834</v>
+        <v>4.970942497253418</v>
       </c>
       <c r="GM2" t="n">
-        <v>8.441739082336426</v>
+        <v>8.053939819335938</v>
       </c>
       <c r="GN2" t="n">
-        <v>-11.69428157806396</v>
+        <v>-11.38647270202637</v>
       </c>
       <c r="GO2" t="n">
-        <v>-6.687730312347412</v>
+        <v>-6.227063655853271</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.111818753182888</v>
+        <v>-0.3705945909023285</v>
       </c>
       <c r="GQ2" t="n">
-        <v>3.330566883087158</v>
+        <v>2.787389039993286</v>
       </c>
       <c r="GR2" t="n">
-        <v>-3.29799485206604</v>
+        <v>-3.538718461990356</v>
       </c>
       <c r="GS2" t="n">
-        <v>-14.6057014465332</v>
+        <v>-15.04020977020264</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.3176648616790771</v>
+        <v>0.05054278671741486</v>
       </c>
       <c r="GU2" t="n">
-        <v>2.045573472976685</v>
+        <v>2.515457630157471</v>
       </c>
       <c r="GV2" t="n">
-        <v>-3.639584541320801</v>
+        <v>-3.923527240753174</v>
       </c>
       <c r="GW2" t="n">
-        <v>-14.3999719619751</v>
+        <v>-14.86865901947021</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.630081295967102</v>
+        <v>1.148040056228638</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.183200597763062</v>
+        <v>0.727804958820343</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Energy.xlsx
+++ b/static/Models/Classification/Equation/Energy.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3025257587432861</v>
+        <v>-0.03990186378359795</v>
       </c>
       <c r="C2" t="n">
-        <v>4.226858615875244</v>
+        <v>4.779513359069824</v>
       </c>
       <c r="D2" t="n">
-        <v>9.40650463104248</v>
+        <v>10.01277637481689</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.016296625137329</v>
+        <v>-1.399669647216797</v>
       </c>
       <c r="F2" t="n">
-        <v>2.182333707809448</v>
+        <v>1.417838335037231</v>
       </c>
       <c r="G2" t="n">
-        <v>3.200068235397339</v>
+        <v>3.833158254623413</v>
       </c>
       <c r="H2" t="n">
-        <v>4.465918064117432</v>
+        <v>3.87078070640564</v>
       </c>
       <c r="I2" t="n">
-        <v>1.580472826957703</v>
+        <v>1.227125763893127</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.173219203948975</v>
+        <v>-4.415415287017822</v>
       </c>
       <c r="K2" t="n">
-        <v>4.216335773468018</v>
+        <v>3.504464864730835</v>
       </c>
       <c r="L2" t="n">
-        <v>1.944877028465271</v>
+        <v>2.577246189117432</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.698957443237305</v>
+        <v>-2.808234453201294</v>
       </c>
       <c r="N2" t="n">
-        <v>1.059631705284119</v>
+        <v>0.1781615018844604</v>
       </c>
       <c r="O2" t="n">
-        <v>1.730376243591309</v>
+        <v>1.060872197151184</v>
       </c>
       <c r="P2" t="n">
-        <v>1.148040413856506</v>
+        <v>0.6454381942749023</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.619832515716553</v>
+        <v>6.39239501953125</v>
       </c>
       <c r="R2" t="n">
-        <v>-4.75398063659668</v>
+        <v>-4.320660591125488</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5278166532516479</v>
+        <v>1.462138533592224</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1137157380580902</v>
+        <v>-0.5420771241188049</v>
       </c>
       <c r="U2" t="n">
-        <v>5.712347030639648</v>
+        <v>5.144853115081787</v>
       </c>
       <c r="V2" t="n">
-        <v>1.497024178504944</v>
+        <v>1.259748339653015</v>
       </c>
       <c r="W2" t="n">
-        <v>2.849319696426392</v>
+        <v>2.024138212203979</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6843996047973633</v>
+        <v>-1.502798199653625</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.570783138275146</v>
+        <v>-6.777809619903564</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9.21284008026123</v>
+        <v>-9.772477149963379</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8831363916397095</v>
+        <v>-1.763051867485046</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.943652153015137</v>
+        <v>9.331620216369629</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.506465911865234</v>
+        <v>1.791457533836365</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8656629920005798</v>
+        <v>-1.078582286834717</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.159852266311646</v>
+        <v>2.921442985534668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.086702823638916</v>
+        <v>1.091952443122864</v>
       </c>
       <c r="AG2" t="n">
-        <v>-7.511579513549805</v>
+        <v>-6.996902465820312</v>
       </c>
       <c r="AH2" t="n">
-        <v>-26.96401214599609</v>
+        <v>-27.90390777587891</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.515916347503662</v>
+        <v>1.839096903800964</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.488905668258667</v>
+        <v>1.640005111694336</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04198576137423515</v>
+        <v>-0.05089311674237251</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.39272141456604</v>
+        <v>-0.7995940446853638</v>
       </c>
       <c r="AM2" t="n">
-        <v>-7.544118881225586</v>
+        <v>-8.089877128601074</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.5064546465873718</v>
+        <v>-0.3679575622081757</v>
       </c>
       <c r="AO2" t="n">
-        <v>-9.002861022949219</v>
+        <v>-9.342971801757812</v>
       </c>
       <c r="AP2" t="n">
-        <v>-9.635016441345215</v>
+        <v>-8.909298896789551</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.443096518516541</v>
+        <v>1.159326910972595</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.40239953994751</v>
+        <v>2.743569135665894</v>
       </c>
       <c r="AS2" t="n">
-        <v>-13.03915500640869</v>
+        <v>-12.81966876983643</v>
       </c>
       <c r="AT2" t="n">
-        <v>-6.496969223022461</v>
+        <v>-7.071590900421143</v>
       </c>
       <c r="AU2" t="n">
-        <v>-7.991068363189697</v>
+        <v>-7.605924606323242</v>
       </c>
       <c r="AV2" t="n">
-        <v>-9.506902694702148</v>
+        <v>-8.744226455688477</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.364925861358643</v>
+        <v>-1.987878918647766</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.733473300933838</v>
+        <v>4.608744144439697</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.176796913146973</v>
+        <v>-0.4979899227619171</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-4.938403606414795</v>
+        <v>-3.981710195541382</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.571056127548218</v>
+        <v>3.060833930969238</v>
       </c>
       <c r="BB2" t="n">
-        <v>-8.772204399108887</v>
+        <v>-8.132992744445801</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.09146605432033539</v>
+        <v>0.8497689366340637</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.327254891395569</v>
+        <v>-1.305237293243408</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.397393465042114</v>
+        <v>-1.625675082206726</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.7031996250152588</v>
+        <v>1.327812433242798</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.7547979950904846</v>
+        <v>0.5243507027626038</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.349345684051514</v>
+        <v>-3.043233633041382</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.1267278343439102</v>
+        <v>-0.3641296625137329</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.157939195632935</v>
+        <v>0.9632691144943237</v>
       </c>
       <c r="BK2" t="n">
-        <v>-3.061778783798218</v>
+        <v>-2.393684148788452</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.168964028358459</v>
+        <v>1.377321839332581</v>
       </c>
       <c r="BM2" t="n">
-        <v>-11.9224271774292</v>
+        <v>-10.97705554962158</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.3012229800224304</v>
+        <v>1.083657026290894</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.976378917694092</v>
+        <v>-1.545106887817383</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.687526941299438</v>
+        <v>2.493139505386353</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-6.019150257110596</v>
+        <v>-6.685207843780518</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.334511935710907</v>
+        <v>1.36462128162384</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.640580415725708</v>
+        <v>1.537924528121948</v>
       </c>
       <c r="BT2" t="n">
-        <v>-3.305835008621216</v>
+        <v>-4.052981853485107</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.4396333396434784</v>
+        <v>-0.7624496817588806</v>
       </c>
       <c r="BV2" t="n">
-        <v>-3.969115495681763</v>
+        <v>-3.101583242416382</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.6402245163917542</v>
+        <v>-1.37851345539093</v>
       </c>
       <c r="BX2" t="n">
-        <v>-14.74942302703857</v>
+        <v>-15.31321048736572</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.7659595012664795</v>
+        <v>0.9368619918823242</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.287903308868408</v>
+        <v>-0.9618991613388062</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.8536370396614075</v>
+        <v>-0.3994460999965668</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.544898509979248</v>
+        <v>4.051537036895752</v>
       </c>
       <c r="CC2" t="n">
-        <v>-2.15819525718689</v>
+        <v>-2.216467618942261</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.4181367754936218</v>
+        <v>-0.1641933619976044</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.447279930114746</v>
+        <v>1.188429236412048</v>
       </c>
       <c r="CF2" t="n">
-        <v>-2.383355379104614</v>
+        <v>-1.441414594650269</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.5950043797492981</v>
+        <v>-0.2110358625650406</v>
       </c>
       <c r="CH2" t="n">
-        <v>6.423056602478027</v>
+        <v>5.743248462677002</v>
       </c>
       <c r="CI2" t="n">
-        <v>-2.27769947052002</v>
+        <v>-2.630350589752197</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.190124034881592</v>
+        <v>3.40644359588623</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.296251893043518</v>
+        <v>-1.753389239311218</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.195759892463684</v>
+        <v>-1.498835682868958</v>
       </c>
       <c r="CM2" t="n">
-        <v>-7.049097537994385</v>
+        <v>-7.492896556854248</v>
       </c>
       <c r="CN2" t="n">
-        <v>-2.33149790763855</v>
+        <v>-1.450079917907715</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.349493026733398</v>
+        <v>-2.396456241607666</v>
       </c>
       <c r="CP2" t="n">
-        <v>-3.393150091171265</v>
+        <v>-2.755800485610962</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.355863571166992</v>
+        <v>3.920007467269897</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.03987922146916389</v>
+        <v>0.6521270871162415</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.385596036911011</v>
+        <v>2.276111602783203</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.2377262115478516</v>
+        <v>0.1685109734535217</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.3716583847999573</v>
+        <v>0.3258678913116455</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.5899049043655396</v>
+        <v>0.2589902877807617</v>
       </c>
       <c r="CW2" t="n">
-        <v>-10.41900157928467</v>
+        <v>-9.476774215698242</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.5636000633239746</v>
+        <v>-0.3823658525943756</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.480937957763672</v>
+        <v>2.952265739440918</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.6123145818710327</v>
+        <v>1.066768050193787</v>
       </c>
       <c r="DA2" t="n">
-        <v>-5.30626916885376</v>
+        <v>-5.471785068511963</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.735600471496582</v>
+        <v>2.215088844299316</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.469310402870178</v>
+        <v>-0.5642106533050537</v>
       </c>
       <c r="DD2" t="n">
-        <v>-16.09165191650391</v>
+        <v>-16.62520790100098</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.6780081987380981</v>
+        <v>0.3626779615879059</v>
       </c>
       <c r="DF2" t="n">
-        <v>-3.422050714492798</v>
+        <v>-4.13232421875</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.8024426698684692</v>
+        <v>0.5343562960624695</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.093044281005859</v>
+        <v>5.44797420501709</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.821046471595764</v>
+        <v>1.04746425151825</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.936012744903564</v>
+        <v>4.925119876861572</v>
       </c>
       <c r="DK2" t="n">
-        <v>21.84830665588379</v>
+        <v>22.95235252380371</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.602633237838745</v>
+        <v>3.897808790206909</v>
       </c>
       <c r="DM2" t="n">
-        <v>-8.029177665710449</v>
+        <v>-8.606043815612793</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.07709783315658569</v>
+        <v>-0.02884469553828239</v>
       </c>
       <c r="DO2" t="n">
-        <v>-7.419604778289795</v>
+        <v>-7.919549942016602</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.08939790725708</v>
+        <v>-0.8267751932144165</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.466747999191284</v>
+        <v>1.292906165122986</v>
       </c>
       <c r="DR2" t="n">
-        <v>3.278740167617798</v>
+        <v>4.05486011505127</v>
       </c>
       <c r="DS2" t="n">
-        <v>-4.870789051055908</v>
+        <v>-4.491106033325195</v>
       </c>
       <c r="DT2" t="n">
-        <v>-9.391025543212891</v>
+        <v>-8.932127952575684</v>
       </c>
       <c r="DU2" t="n">
-        <v>-11.33905506134033</v>
+        <v>-10.91913509368896</v>
       </c>
       <c r="DV2" t="n">
-        <v>-1.712559700012207</v>
+        <v>-2.38587760925293</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.069129943847656</v>
+        <v>1.819520235061646</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.3040752410888672</v>
+        <v>-0.3611162006855011</v>
       </c>
       <c r="DY2" t="n">
-        <v>12.05050754547119</v>
+        <v>12.48847484588623</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.8176960945129395</v>
+        <v>0.2087235599756241</v>
       </c>
       <c r="EA2" t="n">
-        <v>11.28180313110352</v>
+        <v>11.83514785766602</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.893261432647705</v>
+        <v>-2.117552042007446</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.54505729675293</v>
+        <v>1.377479672431946</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.055199265480042</v>
+        <v>0.6754575967788696</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.280221462249756</v>
+        <v>-2.523273468017578</v>
       </c>
       <c r="EF2" t="n">
-        <v>5.579689979553223</v>
+        <v>5.424785614013672</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.809199333190918</v>
+        <v>1.207733511924744</v>
       </c>
       <c r="EH2" t="n">
-        <v>-25.48109817504883</v>
+        <v>-25.7750129699707</v>
       </c>
       <c r="EI2" t="n">
-        <v>-2.726479530334473</v>
+        <v>-3.054505586624146</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.413401961326599</v>
+        <v>0.693997859954834</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9128769040107727</v>
+        <v>0.611171543598175</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.031523466110229</v>
+        <v>-2.259228944778442</v>
       </c>
       <c r="EM2" t="n">
-        <v>4.746146678924561</v>
+        <v>4.239148616790771</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.189386367797852</v>
+        <v>9.239894866943359</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.451506108045578</v>
+        <v>0.03449502214789391</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.4827157258987427</v>
+        <v>-0.04936343804001808</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.363107800483704</v>
+        <v>0.699326753616333</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.827284336090088</v>
+        <v>1.90844452381134</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.991284966468811</v>
+        <v>2.285322427749634</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.331622838973999</v>
+        <v>0.7191450595855713</v>
       </c>
       <c r="EU2" t="n">
-        <v>-7.150875091552734</v>
+        <v>-6.621252536773682</v>
       </c>
       <c r="EV2" t="n">
-        <v>-8.986631393432617</v>
+        <v>-9.611394882202148</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.176765918731689</v>
+        <v>-0.7061653733253479</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.260422945022583</v>
+        <v>0.151569202542305</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.900379061698914</v>
+        <v>2.001961231231689</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-8.611339569091797</v>
+        <v>-8.367175102233887</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.297662079334259</v>
+        <v>-0.1014150828123093</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.1655596941709518</v>
+        <v>-0.4969350695610046</v>
       </c>
       <c r="FC2" t="n">
-        <v>7.262465953826904</v>
+        <v>6.690574169158936</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.160354614257812</v>
+        <v>2.375877857208252</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.261931896209717</v>
+        <v>2.743328332901001</v>
       </c>
       <c r="FF2" t="n">
-        <v>-6.610368251800537</v>
+        <v>-5.885899543762207</v>
       </c>
       <c r="FG2" t="n">
-        <v>-10.11997413635254</v>
+        <v>-10.66211414337158</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.736214995384216</v>
+        <v>-2.428311347961426</v>
       </c>
       <c r="FI2" t="n">
-        <v>7.300832748413086</v>
+        <v>8.01713752746582</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.457569807767868</v>
+        <v>-0.1466201543807983</v>
       </c>
       <c r="FK2" t="n">
-        <v>-5.07506275177002</v>
+        <v>-5.949068069458008</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.332852840423584</v>
+        <v>-3.573508977890015</v>
       </c>
       <c r="FM2" t="n">
-        <v>-2.943583965301514</v>
+        <v>-2.65273642539978</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.499422311782837</v>
+        <v>0.8505487442016602</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.1254284828901291</v>
+        <v>-0.6633347272872925</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6645588278770447</v>
+        <v>0.0331796370446682</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.9850828051567078</v>
+        <v>0.8065914511680603</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.425060033798218</v>
+        <v>3.08429479598999</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.009766578674316</v>
+        <v>1.85890519618988</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.293542265892029</v>
+        <v>1.403892517089844</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.7265770435333252</v>
+        <v>-1.013304829597473</v>
       </c>
       <c r="FV2" t="n">
-        <v>-2.042840480804443</v>
+        <v>-2.478109359741211</v>
       </c>
       <c r="FW2" t="n">
-        <v>-4.030874252319336</v>
+        <v>-4.346203804016113</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.4392004907131195</v>
+        <v>-1.235194087028503</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.7434787154197693</v>
+        <v>1.166219592094421</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.6875702738761902</v>
+        <v>0.3699869811534882</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.172792911529541</v>
+        <v>5.390380382537842</v>
       </c>
       <c r="GB2" t="n">
-        <v>-3.179817914962769</v>
+        <v>-2.504034757614136</v>
       </c>
       <c r="GC2" t="n">
-        <v>-9.161799430847168</v>
+        <v>-9.828031539916992</v>
       </c>
       <c r="GD2" t="n">
-        <v>-5.752906799316406</v>
+        <v>-6.261505603790283</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.54130482673645</v>
+        <v>1.342789053916931</v>
       </c>
       <c r="GF2" t="n">
-        <v>-13.7006664276123</v>
+        <v>-12.67272472381592</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.713579177856445</v>
+        <v>-10.48773860931396</v>
       </c>
       <c r="GH2" t="n">
-        <v>-2.242714405059814</v>
+        <v>-2.263126850128174</v>
       </c>
       <c r="GI2" t="n">
-        <v>-11.50119590759277</v>
+        <v>-10.74431991577148</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-3.085612058639526</v>
+        <v>-2.241273641586304</v>
       </c>
       <c r="GK2" t="n">
-        <v>-2.884632349014282</v>
+        <v>-3.117868661880493</v>
       </c>
       <c r="GL2" t="n">
-        <v>4.970942497253418</v>
+        <v>5.750471591949463</v>
       </c>
       <c r="GM2" t="n">
-        <v>8.053939819335938</v>
+        <v>7.325368404388428</v>
       </c>
       <c r="GN2" t="n">
-        <v>-11.38647270202637</v>
+        <v>-10.63079357147217</v>
       </c>
       <c r="GO2" t="n">
-        <v>-6.227063655853271</v>
+        <v>-5.49427604675293</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.3705945909023285</v>
+        <v>-0.3966293036937714</v>
       </c>
       <c r="GQ2" t="n">
-        <v>2.787389039993286</v>
+        <v>3.492882013320923</v>
       </c>
       <c r="GR2" t="n">
-        <v>-3.538718461990356</v>
+        <v>-2.760302066802979</v>
       </c>
       <c r="GS2" t="n">
-        <v>-15.04020977020264</v>
+        <v>-13.93806743621826</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.05054278671741486</v>
+        <v>-0.4621006846427917</v>
       </c>
       <c r="GU2" t="n">
-        <v>2.515457630157471</v>
+        <v>2.992485046386719</v>
       </c>
       <c r="GV2" t="n">
-        <v>-3.923527240753174</v>
+        <v>-4.041386127471924</v>
       </c>
       <c r="GW2" t="n">
-        <v>-14.86865901947021</v>
+        <v>-14.04852676391602</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.148040056228638</v>
+        <v>1.949260950088501</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.727804958820343</v>
+        <v>0.5309465527534485</v>
       </c>
     </row>
   </sheetData>
